--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_13_20.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_13_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-553088.9474279254</v>
+        <v>-553767.1287354579</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>311885.1970183199</v>
+        <v>311885.1970183197</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058543</v>
+        <v>632041.4518058542</v>
       </c>
     </row>
     <row r="9">
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>122.7111663740568</v>
+        <v>95.40764970735211</v>
       </c>
       <c r="H11" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>46.38701225037785</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>33.06238140451853</v>
+        <v>33.0623814045185</v>
       </c>
       <c r="T11" t="n">
-        <v>28.20762267428242</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>55.93811835407746</v>
       </c>
       <c r="V11" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="X11" t="n">
-        <v>46.81399126346825</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>16.57461202602702</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1458,13 +1458,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>91.4326182344056</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>20.73635203332428</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="U12" t="n">
-        <v>43.01612417394765</v>
+        <v>43.0161241739476</v>
       </c>
       <c r="V12" t="n">
-        <v>46.43735102801259</v>
+        <v>46.43735102801253</v>
       </c>
       <c r="W12" t="n">
-        <v>122.7111663740568</v>
+        <v>72.49301368962188</v>
       </c>
       <c r="X12" t="n">
-        <v>122.7111663740568</v>
+        <v>23.10134455208089</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.17271624663596</v>
+        <v>29.1727162466359</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.003274493278809</v>
+        <v>9.003274493278772</v>
       </c>
       <c r="S13" t="n">
-        <v>41.14309824393261</v>
+        <v>41.14309824393256</v>
       </c>
       <c r="T13" t="n">
-        <v>29.52954681521118</v>
+        <v>29.52954681521112</v>
       </c>
       <c r="U13" t="n">
-        <v>94.44472612269439</v>
+        <v>94.44472612269433</v>
       </c>
       <c r="V13" t="n">
-        <v>50.89744529706024</v>
+        <v>50.89744529706019</v>
       </c>
       <c r="W13" t="n">
-        <v>96.09913720194567</v>
+        <v>96.09913720194561</v>
       </c>
       <c r="X13" t="n">
-        <v>27.70788552085287</v>
+        <v>27.70788552085281</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.92970292677876</v>
+        <v>22.9297029267787</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>67.20002703306966</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="D14" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>67.20002703306972</v>
       </c>
       <c r="H14" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>46.38701225037786</v>
+        <v>46.38701225037784</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>33.06238140451853</v>
+        <v>33.06238140451849</v>
       </c>
       <c r="T14" t="n">
-        <v>28.20762267428242</v>
+        <v>28.20762267428236</v>
       </c>
       <c r="U14" t="n">
-        <v>55.93811835407752</v>
+        <v>55.93811835407746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1698,16 +1698,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>11.38249396128616</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>60.47239567506983</v>
       </c>
       <c r="I15" t="n">
-        <v>107.1669324054735</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.9360199031985</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.14101078849129</v>
       </c>
       <c r="R15" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="T15" t="n">
-        <v>20.73635203332428</v>
+        <v>20.73635203332423</v>
       </c>
       <c r="U15" t="n">
-        <v>43.01612417394765</v>
+        <v>43.0161241739476</v>
       </c>
       <c r="V15" t="n">
-        <v>46.43735102801259</v>
+        <v>46.43735102801253</v>
       </c>
       <c r="W15" t="n">
-        <v>72.49301368962193</v>
+        <v>72.49301368962188</v>
       </c>
       <c r="X15" t="n">
-        <v>23.10134455208095</v>
+        <v>23.10134455208089</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.17271624663596</v>
+        <v>29.1727162466359</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.003274493278809</v>
+        <v>9.003274493278766</v>
       </c>
       <c r="S16" t="n">
-        <v>41.14309824393261</v>
+        <v>41.14309824393256</v>
       </c>
       <c r="T16" t="n">
-        <v>29.52954681521118</v>
+        <v>29.52954681521112</v>
       </c>
       <c r="U16" t="n">
-        <v>94.44472612269439</v>
+        <v>94.44472612269433</v>
       </c>
       <c r="V16" t="n">
-        <v>50.89744529706024</v>
+        <v>50.89744529706019</v>
       </c>
       <c r="W16" t="n">
-        <v>96.09913720194567</v>
+        <v>96.09913720194561</v>
       </c>
       <c r="X16" t="n">
-        <v>27.70788552085287</v>
+        <v>27.70788552085281</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.92970292677876</v>
+        <v>22.9297029267787</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>53.44089762924057</v>
+        <v>53.44089762924051</v>
       </c>
       <c r="C17" t="n">
-        <v>29.55915463258584</v>
+        <v>29.559154632586</v>
       </c>
       <c r="D17" t="n">
-        <v>17.12581689363452</v>
+        <v>17.12581689363446</v>
       </c>
       <c r="E17" t="n">
-        <v>50.83256931304339</v>
+        <v>50.83256931304334</v>
       </c>
       <c r="F17" t="n">
-        <v>82.55290689142072</v>
+        <v>82.55290689142066</v>
       </c>
       <c r="G17" t="n">
-        <v>98.18116457427345</v>
+        <v>98.1811645742734</v>
       </c>
       <c r="H17" t="n">
-        <v>26.26582637653696</v>
+        <v>26.26582637653689</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0.2334408605592557</v>
+        <v>0.2334408605591989</v>
       </c>
       <c r="W17" t="n">
-        <v>17.25012107717413</v>
+        <v>17.25012107717407</v>
       </c>
       <c r="X17" t="n">
-        <v>39.13637154611337</v>
+        <v>39.13637154611331</v>
       </c>
       <c r="Y17" t="n">
-        <v>61.63922466985713</v>
+        <v>61.63922466985707</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1932,19 +1932,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>108.0839953422692</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.9360199031985</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,19 +1965,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.14101078849129</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>50.00696465057933</v>
       </c>
       <c r="U18" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>101.9429845537779</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2202,28 +2202,28 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.141010788491243</v>
+        <v>6.14101078849129</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>101.9429845537778</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>122.7111663740569</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2409,16 +2409,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>122.7111663740569</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>122.7111663740568</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.9360199031985</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>122.7111663740568</v>
       </c>
       <c r="S24" t="n">
-        <v>122.7111663740569</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>71.69220940765398</v>
       </c>
       <c r="U24" t="n">
-        <v>108.0839953422693</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>133.9915850588471</v>
       </c>
       <c r="I26" t="n">
-        <v>27.67799807148489</v>
+        <v>27.67799807148492</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>14.35336722562556</v>
       </c>
       <c r="T26" t="n">
-        <v>9.498608495389446</v>
+        <v>9.498608495389448</v>
       </c>
       <c r="U26" t="n">
         <v>37.22910417518455</v>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2649,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>125.6804106468432</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>82.79562248040011</v>
       </c>
       <c r="J27" t="n">
-        <v>51.93601990319846</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2685,16 +2685,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.027337854431311</v>
+        <v>2.027337854431312</v>
       </c>
       <c r="U27" t="n">
         <v>24.30710999505468</v>
       </c>
       <c r="V27" t="n">
-        <v>27.72833684911961</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>87.32178732681267</v>
+        <v>53.78399951072896</v>
       </c>
       <c r="X27" t="n">
         <v>4.392330373187974</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.43408406503963</v>
+        <v>22.43408406503964</v>
       </c>
       <c r="T28" t="n">
         <v>10.82053263631821</v>
@@ -2810,7 +2810,7 @@
         <v>133.9915850588471</v>
       </c>
       <c r="I29" t="n">
-        <v>27.67799807148489</v>
+        <v>27.67799807148492</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>14.35336722562556</v>
       </c>
       <c r="T29" t="n">
-        <v>9.498608495389446</v>
+        <v>9.498608495389448</v>
       </c>
       <c r="U29" t="n">
         <v>37.22910417518455</v>
@@ -2880,19 +2880,19 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>125.6804106468432</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>51.93601990319846</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.141010788491243</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2928,16 +2928,16 @@
         <v>24.30710999505468</v>
       </c>
       <c r="V30" t="n">
-        <v>27.72833684911961</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
         <v>53.78399951072896</v>
       </c>
       <c r="X30" t="n">
-        <v>4.392330373187974</v>
+        <v>212.8683635004312</v>
       </c>
       <c r="Y30" t="n">
-        <v>89.27943880280819</v>
+        <v>10.46370206774299</v>
       </c>
     </row>
     <row r="31">
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.43408406503963</v>
+        <v>22.43408406503964</v>
       </c>
       <c r="T31" t="n">
         <v>10.82053263631821</v>
@@ -3047,7 +3047,7 @@
         <v>133.9915850588471</v>
       </c>
       <c r="I32" t="n">
-        <v>27.67799807148489</v>
+        <v>27.67799807148492</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.35336722562556</v>
+        <v>14.35336722562558</v>
       </c>
       <c r="T32" t="n">
-        <v>9.498608495389446</v>
+        <v>9.498608495389449</v>
       </c>
       <c r="U32" t="n">
         <v>37.22910417518455</v>
@@ -3108,16 +3108,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.027337854431311</v>
+        <v>2.027337854431312</v>
       </c>
       <c r="U33" t="n">
         <v>24.30710999505468</v>
@@ -3168,13 +3168,13 @@
         <v>27.72833684911961</v>
       </c>
       <c r="W33" t="n">
-        <v>169.5831623297939</v>
+        <v>53.78399951072896</v>
       </c>
       <c r="X33" t="n">
-        <v>4.392330373187974</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.46370206774299</v>
+        <v>101.2093083015408</v>
       </c>
     </row>
     <row r="34">
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.43408406503963</v>
+        <v>22.43408406503964</v>
       </c>
       <c r="T34" t="n">
         <v>10.82053263631821</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.838477452522966</v>
+        <v>1.838477452522952</v>
       </c>
       <c r="V35" t="n">
         <v>72.56857282020781</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J36" t="n">
-        <v>51.93601990319846</v>
+        <v>51.9360199031985</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,16 +3393,16 @@
         <v>134.3654897447971</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U36" t="n">
-        <v>170.1174102200577</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>38.72548779846987</v>
       </c>
       <c r="W36" t="n">
         <v>18.39337278806738</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.838477452522966</v>
+        <v>1.838477452522952</v>
       </c>
       <c r="V38" t="n">
         <v>72.56857282020781</v>
@@ -3588,22 +3588,22 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.6804106468432</v>
       </c>
       <c r="I39" t="n">
         <v>107.1669324054735</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>51.9360199031985</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>133.2768124724448</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>190.7625121430374</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>18.39337278806738</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.55110610369961</v>
+        <v>9.551106103699624</v>
       </c>
       <c r="V41" t="n">
         <v>80.28120147138446</v>
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>130.9193721912627</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3834,13 +3834,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.6804106468432</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>51.9360199031985</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,19 +3864,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>120.2300316435291</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0.05033877763469263</v>
       </c>
       <c r="W42" t="n">
         <v>26.10600143924404</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>35.72448705461999</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4104,16 +4104,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276940613373</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0.05033877763469263</v>
+        <v>81.51772654423812</v>
       </c>
       <c r="W45" t="n">
         <v>266.7045835770116</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>257.7182395201404</v>
+        <v>153.0438245803588</v>
       </c>
       <c r="C11" t="n">
-        <v>257.7182395201404</v>
+        <v>153.0438245803588</v>
       </c>
       <c r="D11" t="n">
-        <v>257.7182395201404</v>
+        <v>153.0438245803588</v>
       </c>
       <c r="E11" t="n">
-        <v>257.7182395201404</v>
+        <v>153.0438245803588</v>
       </c>
       <c r="F11" t="n">
-        <v>257.7182395201404</v>
+        <v>153.0438245803588</v>
       </c>
       <c r="G11" t="n">
-        <v>133.7675664150325</v>
+        <v>56.67246123959914</v>
       </c>
       <c r="H11" t="n">
-        <v>9.816893309924549</v>
+        <v>56.67246123959914</v>
       </c>
       <c r="I11" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="J11" t="n">
-        <v>80.77375804182491</v>
+        <v>126.9687252395235</v>
       </c>
       <c r="K11" t="n">
-        <v>202.2578127521412</v>
+        <v>126.9687252395235</v>
       </c>
       <c r="L11" t="n">
-        <v>250.6449420033528</v>
+        <v>175.355854490735</v>
       </c>
       <c r="M11" t="n">
-        <v>333.360906181516</v>
+        <v>258.071818668898</v>
       </c>
       <c r="N11" t="n">
-        <v>454.8449608918323</v>
+        <v>335.2837776073473</v>
       </c>
       <c r="O11" t="n">
-        <v>490.8446654962274</v>
+        <v>371.2834822117422</v>
       </c>
       <c r="P11" t="n">
-        <v>490.8446654962274</v>
+        <v>490.844665496227</v>
       </c>
       <c r="Q11" t="n">
-        <v>490.8446654962274</v>
+        <v>490.844665496227</v>
       </c>
       <c r="R11" t="n">
-        <v>490.8446654962274</v>
+        <v>490.844665496227</v>
       </c>
       <c r="S11" t="n">
-        <v>457.4483206431784</v>
+        <v>457.448320643178</v>
       </c>
       <c r="T11" t="n">
-        <v>428.9557724873375</v>
+        <v>457.448320643178</v>
       </c>
       <c r="U11" t="n">
-        <v>428.9557724873375</v>
+        <v>400.9451707905745</v>
       </c>
       <c r="V11" t="n">
-        <v>305.0050993822296</v>
+        <v>400.9451707905745</v>
       </c>
       <c r="W11" t="n">
-        <v>305.0050993822296</v>
+        <v>276.9944976854666</v>
       </c>
       <c r="X11" t="n">
-        <v>257.7182395201404</v>
+        <v>153.0438245803588</v>
       </c>
       <c r="Y11" t="n">
-        <v>257.7182395201404</v>
+        <v>153.0438245803588</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>102.1730733446777</v>
+        <v>150.5095987645546</v>
       </c>
       <c r="C12" t="n">
-        <v>102.1730733446777</v>
+        <v>133.7675664150324</v>
       </c>
       <c r="D12" t="n">
-        <v>102.1730733446777</v>
+        <v>133.7675664150324</v>
       </c>
       <c r="E12" t="n">
-        <v>102.1730733446777</v>
+        <v>133.7675664150324</v>
       </c>
       <c r="F12" t="n">
-        <v>9.816893309924549</v>
+        <v>133.7675664150324</v>
       </c>
       <c r="G12" t="n">
-        <v>9.816893309924549</v>
+        <v>133.7675664150324</v>
       </c>
       <c r="H12" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="I12" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="J12" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="K12" t="n">
-        <v>48.6924984314919</v>
+        <v>48.69249843149181</v>
       </c>
       <c r="L12" t="n">
-        <v>48.6924984314919</v>
+        <v>167.2520893996961</v>
       </c>
       <c r="M12" t="n">
-        <v>170.1765531418082</v>
+        <v>288.7361441100123</v>
       </c>
       <c r="N12" t="n">
-        <v>291.6606078521244</v>
+        <v>288.7361441100123</v>
       </c>
       <c r="O12" t="n">
-        <v>413.1446625624407</v>
+        <v>406.1407351779811</v>
       </c>
       <c r="P12" t="n">
-        <v>490.8446654962274</v>
+        <v>490.844665496227</v>
       </c>
       <c r="Q12" t="n">
-        <v>490.8446654962274</v>
+        <v>490.844665496227</v>
       </c>
       <c r="R12" t="n">
-        <v>490.8446654962274</v>
+        <v>490.844665496227</v>
       </c>
       <c r="S12" t="n">
-        <v>490.8446654962274</v>
+        <v>490.844665496227</v>
       </c>
       <c r="T12" t="n">
-        <v>469.8988553615564</v>
+        <v>366.8939923911191</v>
       </c>
       <c r="U12" t="n">
-        <v>426.4482248828214</v>
+        <v>323.4433619123841</v>
       </c>
       <c r="V12" t="n">
-        <v>379.5418097030107</v>
+        <v>276.5369467325735</v>
       </c>
       <c r="W12" t="n">
-        <v>255.5911365979028</v>
+        <v>203.3116803794201</v>
       </c>
       <c r="X12" t="n">
-        <v>131.6404634927948</v>
+        <v>179.9769889126717</v>
       </c>
       <c r="Y12" t="n">
-        <v>102.1730733446777</v>
+        <v>150.5095987645546</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.2455960401219</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="C13" t="n">
-        <v>26.2455960401219</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="D13" t="n">
-        <v>26.2455960401219</v>
+        <v>58.35552375023676</v>
       </c>
       <c r="E13" t="n">
-        <v>26.2455960401219</v>
+        <v>110.2833842700635</v>
       </c>
       <c r="F13" t="n">
-        <v>80.97743683237547</v>
+        <v>165.0152250623171</v>
       </c>
       <c r="G13" t="n">
-        <v>106.2378602394506</v>
+        <v>190.2756484693923</v>
       </c>
       <c r="H13" t="n">
-        <v>106.2378602394506</v>
+        <v>190.2756484693923</v>
       </c>
       <c r="I13" t="n">
-        <v>106.2378602394506</v>
+        <v>190.2756484693923</v>
       </c>
       <c r="J13" t="n">
-        <v>106.2378602394506</v>
+        <v>263.842754379158</v>
       </c>
       <c r="K13" t="n">
-        <v>106.2378602394506</v>
+        <v>263.842754379158</v>
       </c>
       <c r="L13" t="n">
-        <v>227.7219149497669</v>
+        <v>263.842754379158</v>
       </c>
       <c r="M13" t="n">
-        <v>227.7219149497669</v>
+        <v>263.842754379158</v>
       </c>
       <c r="N13" t="n">
-        <v>349.2059696600832</v>
+        <v>263.842754379158</v>
       </c>
       <c r="O13" t="n">
-        <v>349.2059696600832</v>
+        <v>385.3268090894741</v>
       </c>
       <c r="P13" t="n">
-        <v>385.3268090894746</v>
+        <v>385.3268090894741</v>
       </c>
       <c r="Q13" t="n">
-        <v>385.3268090894746</v>
+        <v>385.3268090894741</v>
       </c>
       <c r="R13" t="n">
-        <v>376.232592429597</v>
+        <v>376.2325924295966</v>
       </c>
       <c r="S13" t="n">
-        <v>334.6739073347156</v>
+        <v>334.6739073347152</v>
       </c>
       <c r="T13" t="n">
-        <v>304.8460822688457</v>
+        <v>304.8460822688454</v>
       </c>
       <c r="U13" t="n">
-        <v>209.4473690135989</v>
+        <v>209.4473690135986</v>
       </c>
       <c r="V13" t="n">
-        <v>158.0358081074774</v>
+        <v>158.0358081074772</v>
       </c>
       <c r="W13" t="n">
-        <v>60.9659725499565</v>
+        <v>60.96597254995638</v>
       </c>
       <c r="X13" t="n">
-        <v>32.97820939757986</v>
+        <v>32.9782093975798</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>372.452622634734</v>
+        <v>372.4526226347337</v>
       </c>
       <c r="C14" t="n">
-        <v>304.573807449815</v>
+        <v>248.5019495296258</v>
       </c>
       <c r="D14" t="n">
-        <v>180.6231343447071</v>
+        <v>248.5019495296258</v>
       </c>
       <c r="E14" t="n">
-        <v>180.6231343447071</v>
+        <v>124.551276424518</v>
       </c>
       <c r="F14" t="n">
-        <v>180.6231343447071</v>
+        <v>124.551276424518</v>
       </c>
       <c r="G14" t="n">
-        <v>180.6231343447071</v>
+        <v>56.6724612395991</v>
       </c>
       <c r="H14" t="n">
-        <v>56.67246123959916</v>
+        <v>56.6724612395991</v>
       </c>
       <c r="I14" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="J14" t="n">
-        <v>80.77375804182489</v>
+        <v>126.9687252395235</v>
       </c>
       <c r="K14" t="n">
-        <v>80.77375804182489</v>
+        <v>141.9348225855757</v>
       </c>
       <c r="L14" t="n">
-        <v>129.1608872930366</v>
+        <v>190.3219518367873</v>
       </c>
       <c r="M14" t="n">
-        <v>211.8768514711997</v>
+        <v>273.0379160149503</v>
       </c>
       <c r="N14" t="n">
-        <v>333.360906181516</v>
+        <v>350.2498749533996</v>
       </c>
       <c r="O14" t="n">
-        <v>369.3606107859111</v>
+        <v>386.2495795577946</v>
       </c>
       <c r="P14" t="n">
-        <v>490.8446654962274</v>
+        <v>386.2495795577946</v>
       </c>
       <c r="Q14" t="n">
-        <v>490.8446654962274</v>
+        <v>490.844665496227</v>
       </c>
       <c r="R14" t="n">
-        <v>490.8446654962274</v>
+        <v>490.844665496227</v>
       </c>
       <c r="S14" t="n">
-        <v>457.4483206431784</v>
+        <v>457.448320643178</v>
       </c>
       <c r="T14" t="n">
-        <v>428.9557724873375</v>
+        <v>428.9557724873372</v>
       </c>
       <c r="U14" t="n">
-        <v>372.452622634734</v>
+        <v>372.4526226347337</v>
       </c>
       <c r="V14" t="n">
-        <v>372.452622634734</v>
+        <v>372.4526226347337</v>
       </c>
       <c r="W14" t="n">
-        <v>372.452622634734</v>
+        <v>372.4526226347337</v>
       </c>
       <c r="X14" t="n">
-        <v>372.452622634734</v>
+        <v>372.4526226347337</v>
       </c>
       <c r="Y14" t="n">
-        <v>372.452622634734</v>
+        <v>372.4526226347337</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>129.5637886298838</v>
+        <v>123.3607474293875</v>
       </c>
       <c r="C15" t="n">
-        <v>129.5637886298838</v>
+        <v>123.3607474293875</v>
       </c>
       <c r="D15" t="n">
-        <v>129.5637886298838</v>
+        <v>123.3607474293875</v>
       </c>
       <c r="E15" t="n">
-        <v>129.5637886298838</v>
+        <v>123.3607474293875</v>
       </c>
       <c r="F15" t="n">
-        <v>129.5637886298838</v>
+        <v>123.3607474293875</v>
       </c>
       <c r="G15" t="n">
-        <v>118.06631998212</v>
+        <v>123.3607474293875</v>
       </c>
       <c r="H15" t="n">
-        <v>118.06631998212</v>
+        <v>62.27751947477151</v>
       </c>
       <c r="I15" t="n">
-        <v>9.816893309924549</v>
+        <v>62.27751947477151</v>
       </c>
       <c r="J15" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="K15" t="n">
-        <v>9.816893309924549</v>
+        <v>48.69249843149183</v>
       </c>
       <c r="L15" t="n">
-        <v>128.376484278129</v>
+        <v>167.2520893996962</v>
       </c>
       <c r="M15" t="n">
-        <v>163.1726257573488</v>
+        <v>288.7361441100123</v>
       </c>
       <c r="N15" t="n">
-        <v>284.6566804676651</v>
+        <v>369.3606107859108</v>
       </c>
       <c r="O15" t="n">
-        <v>406.1407351779814</v>
+        <v>490.844665496227</v>
       </c>
       <c r="P15" t="n">
-        <v>490.8446654962274</v>
+        <v>490.844665496227</v>
       </c>
       <c r="Q15" t="n">
-        <v>490.8446654962274</v>
+        <v>484.6416242957307</v>
       </c>
       <c r="R15" t="n">
-        <v>366.8939923911195</v>
+        <v>484.6416242957307</v>
       </c>
       <c r="S15" t="n">
-        <v>366.8939923911195</v>
+        <v>360.6909511906229</v>
       </c>
       <c r="T15" t="n">
-        <v>345.9481822564485</v>
+        <v>339.7451410559519</v>
       </c>
       <c r="U15" t="n">
-        <v>302.4975517777135</v>
+        <v>296.294510577217</v>
       </c>
       <c r="V15" t="n">
-        <v>255.5911365979028</v>
+        <v>249.3880953974064</v>
       </c>
       <c r="W15" t="n">
-        <v>182.3658702447493</v>
+        <v>176.162829044253</v>
       </c>
       <c r="X15" t="n">
-        <v>159.0311787780009</v>
+        <v>152.8281375775046</v>
       </c>
       <c r="Y15" t="n">
-        <v>129.5637886298838</v>
+        <v>123.3607474293875</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.2455960401219</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="C16" t="n">
-        <v>26.2455960401219</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="D16" t="n">
-        <v>74.78422648043406</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="E16" t="n">
-        <v>94.3469496106425</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="F16" t="n">
-        <v>94.3469496106425</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="G16" t="n">
-        <v>94.3469496106425</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="H16" t="n">
-        <v>94.3469496106425</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="I16" t="n">
-        <v>123.5544017702777</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="J16" t="n">
-        <v>197.1215076800434</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="K16" t="n">
-        <v>197.1215076800434</v>
+        <v>75.63745296972678</v>
       </c>
       <c r="L16" t="n">
-        <v>197.1215076800434</v>
+        <v>197.121507680043</v>
       </c>
       <c r="M16" t="n">
-        <v>318.6055623903596</v>
+        <v>197.121507680043</v>
       </c>
       <c r="N16" t="n">
-        <v>318.6055623903596</v>
+        <v>197.121507680043</v>
       </c>
       <c r="O16" t="n">
-        <v>318.6055623903596</v>
+        <v>197.121507680043</v>
       </c>
       <c r="P16" t="n">
-        <v>318.6055623903596</v>
+        <v>318.6055623903591</v>
       </c>
       <c r="Q16" t="n">
-        <v>385.3268090894746</v>
+        <v>385.3268090894741</v>
       </c>
       <c r="R16" t="n">
-        <v>376.232592429597</v>
+        <v>376.2325924295966</v>
       </c>
       <c r="S16" t="n">
-        <v>334.6739073347156</v>
+        <v>334.6739073347152</v>
       </c>
       <c r="T16" t="n">
-        <v>304.8460822688457</v>
+        <v>304.8460822688454</v>
       </c>
       <c r="U16" t="n">
-        <v>209.4473690135989</v>
+        <v>209.4473690135986</v>
       </c>
       <c r="V16" t="n">
-        <v>158.0358081074774</v>
+        <v>158.0358081074772</v>
       </c>
       <c r="W16" t="n">
-        <v>60.9659725499565</v>
+        <v>60.96597254995638</v>
       </c>
       <c r="X16" t="n">
-        <v>32.97820939757986</v>
+        <v>32.9782093975798</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
     </row>
     <row r="17">
@@ -5489,73 +5489,73 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>317.4102657154752</v>
+        <v>317.4102657154754</v>
       </c>
       <c r="C17" t="n">
-        <v>287.5525337633679</v>
+        <v>287.5525337633683</v>
       </c>
       <c r="D17" t="n">
-        <v>270.2537288203027</v>
+        <v>270.2537288203031</v>
       </c>
       <c r="E17" t="n">
-        <v>218.9076992111679</v>
+        <v>218.9076992111684</v>
       </c>
       <c r="F17" t="n">
-        <v>135.5209245733691</v>
+        <v>135.5209245733697</v>
       </c>
       <c r="G17" t="n">
-        <v>36.34803106400229</v>
+        <v>36.34803106400221</v>
       </c>
       <c r="H17" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="I17" t="n">
-        <v>9.816893309924549</v>
+        <v>89.06417631464154</v>
       </c>
       <c r="J17" t="n">
-        <v>131.3009480202408</v>
+        <v>89.06417631464154</v>
       </c>
       <c r="K17" t="n">
-        <v>131.3009480202408</v>
+        <v>89.06417631464154</v>
       </c>
       <c r="L17" t="n">
-        <v>179.6880772714525</v>
+        <v>137.4513055658531</v>
       </c>
       <c r="M17" t="n">
-        <v>262.4040414496156</v>
+        <v>220.1672697440161</v>
       </c>
       <c r="N17" t="n">
-        <v>339.6160003880651</v>
+        <v>297.3792286824655</v>
       </c>
       <c r="O17" t="n">
-        <v>461.1000550983814</v>
+        <v>333.3789332868604</v>
       </c>
       <c r="P17" t="n">
-        <v>490.8446654962274</v>
+        <v>333.3789332868604</v>
       </c>
       <c r="Q17" t="n">
-        <v>490.8446654962274</v>
+        <v>421.0529775341726</v>
       </c>
       <c r="R17" t="n">
-        <v>490.8446654962274</v>
+        <v>421.0529775341726</v>
       </c>
       <c r="S17" t="n">
-        <v>490.8446654962274</v>
+        <v>421.0529775341726</v>
       </c>
       <c r="T17" t="n">
-        <v>490.8446654962274</v>
+        <v>421.0529775341726</v>
       </c>
       <c r="U17" t="n">
-        <v>490.8446654962274</v>
+        <v>490.844665496227</v>
       </c>
       <c r="V17" t="n">
-        <v>490.6088666471775</v>
+        <v>490.6088666471771</v>
       </c>
       <c r="W17" t="n">
-        <v>473.1845019227592</v>
+        <v>473.184501922759</v>
       </c>
       <c r="X17" t="n">
-        <v>433.6528134923416</v>
+        <v>433.6528134923415</v>
       </c>
       <c r="Y17" t="n">
         <v>371.3909703914758</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>366.8939923911195</v>
+        <v>62.27751947477151</v>
       </c>
       <c r="C18" t="n">
-        <v>366.8939923911195</v>
+        <v>62.27751947477151</v>
       </c>
       <c r="D18" t="n">
-        <v>366.8939923911195</v>
+        <v>62.27751947477151</v>
       </c>
       <c r="E18" t="n">
-        <v>366.8939923911195</v>
+        <v>62.27751947477151</v>
       </c>
       <c r="F18" t="n">
-        <v>242.9433192860115</v>
+        <v>62.27751947477151</v>
       </c>
       <c r="G18" t="n">
-        <v>118.9926461809036</v>
+        <v>62.27751947477151</v>
       </c>
       <c r="H18" t="n">
-        <v>9.816893309924549</v>
+        <v>62.27751947477151</v>
       </c>
       <c r="I18" t="n">
-        <v>9.816893309924549</v>
+        <v>62.27751947477151</v>
       </c>
       <c r="J18" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="K18" t="n">
-        <v>48.6924984314919</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="L18" t="n">
-        <v>48.6924984314919</v>
+        <v>128.3764842781289</v>
       </c>
       <c r="M18" t="n">
-        <v>170.1765531418082</v>
+        <v>249.8605389884451</v>
       </c>
       <c r="N18" t="n">
-        <v>291.6606078521244</v>
+        <v>284.6566804676648</v>
       </c>
       <c r="O18" t="n">
-        <v>413.1446625624407</v>
+        <v>406.140735177981</v>
       </c>
       <c r="P18" t="n">
-        <v>490.8446654962274</v>
+        <v>490.844665496227</v>
       </c>
       <c r="Q18" t="n">
-        <v>490.8446654962274</v>
+        <v>484.6416242957307</v>
       </c>
       <c r="R18" t="n">
-        <v>490.8446654962274</v>
+        <v>360.6909511906229</v>
       </c>
       <c r="S18" t="n">
-        <v>490.8446654962274</v>
+        <v>360.6909511906229</v>
       </c>
       <c r="T18" t="n">
-        <v>490.8446654962274</v>
+        <v>310.1788656849872</v>
       </c>
       <c r="U18" t="n">
-        <v>366.8939923911195</v>
+        <v>310.1788656849872</v>
       </c>
       <c r="V18" t="n">
-        <v>366.8939923911195</v>
+        <v>310.1788656849872</v>
       </c>
       <c r="W18" t="n">
-        <v>366.8939923911195</v>
+        <v>310.1788656849872</v>
       </c>
       <c r="X18" t="n">
-        <v>366.8939923911195</v>
+        <v>186.2281925798793</v>
       </c>
       <c r="Y18" t="n">
-        <v>366.8939923911195</v>
+        <v>186.2281925798793</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="C19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="D19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="E19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="F19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="G19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="H19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="I19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="J19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="K19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="L19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="M19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="N19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="O19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="P19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="R19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="S19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="T19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="U19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="V19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="W19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="X19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>317.4102657154753</v>
+        <v>317.4102657154741</v>
       </c>
       <c r="C20" t="n">
-        <v>287.552533763368</v>
+        <v>287.5525337633669</v>
       </c>
       <c r="D20" t="n">
-        <v>270.2537288203028</v>
+        <v>270.2537288203018</v>
       </c>
       <c r="E20" t="n">
-        <v>218.9076992111681</v>
+        <v>218.9076992111673</v>
       </c>
       <c r="F20" t="n">
-        <v>135.5209245733693</v>
+        <v>135.520924573369</v>
       </c>
       <c r="G20" t="n">
-        <v>36.34803106400228</v>
+        <v>36.34803106400227</v>
       </c>
       <c r="H20" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="I20" t="n">
-        <v>9.816893309924549</v>
+        <v>89.06417631464149</v>
       </c>
       <c r="J20" t="n">
-        <v>9.816893309924549</v>
+        <v>176.7382205619538</v>
       </c>
       <c r="K20" t="n">
-        <v>9.816893309924549</v>
+        <v>176.7382205619538</v>
       </c>
       <c r="L20" t="n">
-        <v>126.3925013652785</v>
+        <v>225.1253498131653</v>
       </c>
       <c r="M20" t="n">
-        <v>247.8765560755948</v>
+        <v>307.8413139913283</v>
       </c>
       <c r="N20" t="n">
-        <v>369.3606107859111</v>
+        <v>385.0532729297777</v>
       </c>
       <c r="O20" t="n">
-        <v>490.8446654962274</v>
+        <v>421.0529775341727</v>
       </c>
       <c r="P20" t="n">
-        <v>490.8446654962274</v>
+        <v>421.0529775341727</v>
       </c>
       <c r="Q20" t="n">
-        <v>490.8446654962274</v>
+        <v>421.0529775341727</v>
       </c>
       <c r="R20" t="n">
-        <v>490.8446654962274</v>
+        <v>421.0529775341727</v>
       </c>
       <c r="S20" t="n">
-        <v>490.8446654962274</v>
+        <v>421.0529775341727</v>
       </c>
       <c r="T20" t="n">
-        <v>490.8446654962274</v>
+        <v>421.0529775341727</v>
       </c>
       <c r="U20" t="n">
-        <v>490.8446654962274</v>
+        <v>490.844665496227</v>
       </c>
       <c r="V20" t="n">
-        <v>490.6088666471775</v>
+        <v>490.6088666471765</v>
       </c>
       <c r="W20" t="n">
-        <v>473.1845019227593</v>
+        <v>473.184501922758</v>
       </c>
       <c r="X20" t="n">
-        <v>433.6528134923417</v>
+        <v>433.6528134923406</v>
       </c>
       <c r="Y20" t="n">
-        <v>371.3909703914759</v>
+        <v>371.3909703914747</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>360.6909511906232</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="C21" t="n">
-        <v>236.7402780855153</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="D21" t="n">
-        <v>236.7402780855153</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="E21" t="n">
-        <v>236.7402780855153</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="F21" t="n">
-        <v>133.7675664150325</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="G21" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="H21" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="I21" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="J21" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="K21" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="L21" t="n">
-        <v>128.376484278129</v>
+        <v>41.6885710470325</v>
       </c>
       <c r="M21" t="n">
-        <v>163.1726257573488</v>
+        <v>163.1726257573487</v>
       </c>
       <c r="N21" t="n">
-        <v>284.6566804676651</v>
+        <v>284.6566804676648</v>
       </c>
       <c r="O21" t="n">
-        <v>406.1407351779814</v>
+        <v>406.140735177981</v>
       </c>
       <c r="P21" t="n">
-        <v>490.8446654962274</v>
+        <v>490.844665496227</v>
       </c>
       <c r="Q21" t="n">
-        <v>484.6416242957312</v>
+        <v>484.6416242957307</v>
       </c>
       <c r="R21" t="n">
-        <v>484.6416242957312</v>
+        <v>484.6416242957307</v>
       </c>
       <c r="S21" t="n">
-        <v>484.6416242957312</v>
+        <v>381.668912625248</v>
       </c>
       <c r="T21" t="n">
-        <v>484.6416242957312</v>
+        <v>257.7182395201402</v>
       </c>
       <c r="U21" t="n">
-        <v>484.6416242957312</v>
+        <v>133.7675664150324</v>
       </c>
       <c r="V21" t="n">
-        <v>484.6416242957312</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="W21" t="n">
-        <v>484.6416242957312</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="X21" t="n">
-        <v>360.6909511906232</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="Y21" t="n">
-        <v>360.6909511906232</v>
+        <v>9.81689330992454</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="C22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="D22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="E22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="F22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="G22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="H22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="I22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="J22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="K22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="L22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="M22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="N22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="O22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="P22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="R22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="S22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="T22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="U22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="V22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="W22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="X22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.81689330992454</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>317.4102657154758</v>
+        <v>317.4102657154754</v>
       </c>
       <c r="C23" t="n">
-        <v>287.5525337633687</v>
+        <v>287.5525337633683</v>
       </c>
       <c r="D23" t="n">
-        <v>270.2537288203034</v>
+        <v>270.253728820303</v>
       </c>
       <c r="E23" t="n">
-        <v>218.9076992111687</v>
+        <v>218.9076992111677</v>
       </c>
       <c r="F23" t="n">
-        <v>135.5209245733699</v>
+        <v>135.520924573369</v>
       </c>
       <c r="G23" t="n">
-        <v>36.34803106400229</v>
+        <v>36.34803106400227</v>
       </c>
       <c r="H23" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="I23" t="n">
-        <v>9.816893309924556</v>
+        <v>89.06417631464149</v>
       </c>
       <c r="J23" t="n">
-        <v>9.816893309924556</v>
+        <v>149.2850298389568</v>
       </c>
       <c r="K23" t="n">
-        <v>9.816893309924556</v>
+        <v>149.2850298389568</v>
       </c>
       <c r="L23" t="n">
-        <v>58.20402256113621</v>
+        <v>197.6721590901683</v>
       </c>
       <c r="M23" t="n">
-        <v>140.9199867392994</v>
+        <v>280.3881232683314</v>
       </c>
       <c r="N23" t="n">
-        <v>262.4040414496158</v>
+        <v>357.6000822067807</v>
       </c>
       <c r="O23" t="n">
-        <v>383.8880961599322</v>
+        <v>393.5997868111757</v>
       </c>
       <c r="P23" t="n">
-        <v>383.8880961599322</v>
+        <v>393.5997868111757</v>
       </c>
       <c r="Q23" t="n">
-        <v>383.8880961599322</v>
+        <v>393.5997868111757</v>
       </c>
       <c r="R23" t="n">
-        <v>383.8880961599322</v>
+        <v>393.5997868111757</v>
       </c>
       <c r="S23" t="n">
-        <v>383.8880961599322</v>
+        <v>393.5997868111757</v>
       </c>
       <c r="T23" t="n">
-        <v>481.1329748449837</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="U23" t="n">
-        <v>490.8446654962278</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="V23" t="n">
-        <v>490.608866647178</v>
+        <v>490.6088666471776</v>
       </c>
       <c r="W23" t="n">
-        <v>473.1845019227597</v>
+        <v>473.1845019227594</v>
       </c>
       <c r="X23" t="n">
-        <v>433.6528134923421</v>
+        <v>433.6528134923418</v>
       </c>
       <c r="Y23" t="n">
-        <v>371.3909703914763</v>
+        <v>371.3909703914759</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>133.7675664150326</v>
+        <v>294.4776192520749</v>
       </c>
       <c r="C24" t="n">
-        <v>133.7675664150326</v>
+        <v>294.4776192520749</v>
       </c>
       <c r="D24" t="n">
-        <v>133.7675664150326</v>
+        <v>294.4776192520749</v>
       </c>
       <c r="E24" t="n">
-        <v>133.7675664150326</v>
+        <v>294.4776192520749</v>
       </c>
       <c r="F24" t="n">
-        <v>133.7675664150326</v>
+        <v>294.4776192520749</v>
       </c>
       <c r="G24" t="n">
-        <v>9.816893309924556</v>
+        <v>294.4776192520749</v>
       </c>
       <c r="H24" t="n">
-        <v>9.816893309924556</v>
+        <v>170.526946146967</v>
       </c>
       <c r="I24" t="n">
-        <v>9.816893309924556</v>
+        <v>62.27751947477152</v>
       </c>
       <c r="J24" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="K24" t="n">
-        <v>48.6924984314919</v>
+        <v>48.69249843149183</v>
       </c>
       <c r="L24" t="n">
-        <v>167.2520893996963</v>
+        <v>167.2520893996962</v>
       </c>
       <c r="M24" t="n">
-        <v>288.7361441100127</v>
+        <v>288.7361441100124</v>
       </c>
       <c r="N24" t="n">
-        <v>406.1407351779818</v>
+        <v>410.2201988203287</v>
       </c>
       <c r="O24" t="n">
-        <v>406.1407351779818</v>
+        <v>410.2201988203287</v>
       </c>
       <c r="P24" t="n">
-        <v>490.8446654962278</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="Q24" t="n">
-        <v>490.8446654962278</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="R24" t="n">
-        <v>490.8446654962278</v>
+        <v>366.8939923911193</v>
       </c>
       <c r="S24" t="n">
-        <v>366.8939923911198</v>
+        <v>366.8939923911193</v>
       </c>
       <c r="T24" t="n">
-        <v>366.8939923911198</v>
+        <v>294.4776192520749</v>
       </c>
       <c r="U24" t="n">
-        <v>257.7182395201406</v>
+        <v>294.4776192520749</v>
       </c>
       <c r="V24" t="n">
-        <v>257.7182395201406</v>
+        <v>294.4776192520749</v>
       </c>
       <c r="W24" t="n">
-        <v>257.7182395201406</v>
+        <v>294.4776192520749</v>
       </c>
       <c r="X24" t="n">
-        <v>257.7182395201406</v>
+        <v>294.4776192520749</v>
       </c>
       <c r="Y24" t="n">
-        <v>257.7182395201406</v>
+        <v>294.4776192520749</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="C25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="D25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="E25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="F25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="G25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="H25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="I25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="J25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="K25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="L25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="M25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="N25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="O25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="P25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="R25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="S25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="T25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="U25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="V25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="W25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="X25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924545</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1024.508541979648</v>
+        <v>1024.508541979649</v>
       </c>
       <c r="C26" t="n">
-        <v>885.8369123686419</v>
+        <v>885.8369123686424</v>
       </c>
       <c r="D26" t="n">
-        <v>759.7242097666776</v>
+        <v>759.7242097666781</v>
       </c>
       <c r="E26" t="n">
-        <v>599.5642824986438</v>
+        <v>599.5642824986442</v>
       </c>
       <c r="F26" t="n">
-        <v>407.363610201946</v>
+        <v>407.3636102019462</v>
       </c>
       <c r="G26" t="n">
-        <v>199.3768190336798</v>
+        <v>199.37681903368</v>
       </c>
       <c r="H26" t="n">
-        <v>64.03178362070287</v>
+        <v>64.0317836207029</v>
       </c>
       <c r="I26" t="n">
         <v>36.07420981112217</v>
       </c>
       <c r="J26" t="n">
-        <v>171.7479657778252</v>
+        <v>171.7479657778251</v>
       </c>
       <c r="K26" t="n">
-        <v>377.2225660613047</v>
+        <v>377.2225660613046</v>
       </c>
       <c r="L26" t="n">
-        <v>636.4010735381362</v>
+        <v>636.401073538136</v>
       </c>
       <c r="M26" t="n">
-        <v>929.9084159419197</v>
+        <v>929.9084159419198</v>
       </c>
       <c r="N26" t="n">
         <v>1217.911753105989</v>
@@ -6257,10 +6257,10 @@
         <v>1779.617585787406</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.012430054897</v>
+        <v>1742.012430054896</v>
       </c>
       <c r="V26" t="n">
-        <v>1632.962733546948</v>
+        <v>1632.962733546947</v>
       </c>
       <c r="W26" t="n">
         <v>1506.72447116363</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>249.3149522149374</v>
+        <v>246.6560614548023</v>
       </c>
       <c r="C27" t="n">
-        <v>249.3149522149374</v>
+        <v>246.6560614548023</v>
       </c>
       <c r="D27" t="n">
-        <v>88.5348359759691</v>
+        <v>246.6560614548023</v>
       </c>
       <c r="E27" t="n">
-        <v>88.5348359759691</v>
+        <v>246.6560614548023</v>
       </c>
       <c r="F27" t="n">
-        <v>88.5348359759691</v>
+        <v>246.6560614548023</v>
       </c>
       <c r="G27" t="n">
-        <v>88.5348359759691</v>
+        <v>246.6560614548023</v>
       </c>
       <c r="H27" t="n">
-        <v>88.5348359759691</v>
+        <v>119.7061517105162</v>
       </c>
       <c r="I27" t="n">
-        <v>88.5348359759691</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="J27" t="n">
         <v>36.07420981112217</v>
       </c>
       <c r="K27" t="n">
-        <v>74.94981493268952</v>
+        <v>74.94981493268946</v>
       </c>
       <c r="L27" t="n">
-        <v>193.509405900894</v>
+        <v>193.5094059008938</v>
       </c>
       <c r="M27" t="n">
-        <v>376.6175206836086</v>
+        <v>376.6175206836083</v>
       </c>
       <c r="N27" t="n">
-        <v>582.9918519763009</v>
+        <v>582.9918519763006</v>
       </c>
       <c r="O27" t="n">
-        <v>716.0369642505273</v>
+        <v>716.0369642505268</v>
       </c>
       <c r="P27" t="n">
-        <v>800.7408945687732</v>
+        <v>800.7408945687728</v>
       </c>
       <c r="Q27" t="n">
-        <v>800.7408945687732</v>
+        <v>800.7408945687728</v>
       </c>
       <c r="R27" t="n">
-        <v>800.7408945687732</v>
+        <v>800.7408945687728</v>
       </c>
       <c r="S27" t="n">
-        <v>800.7408945687732</v>
+        <v>800.7408945687728</v>
       </c>
       <c r="T27" t="n">
-        <v>798.6930785541962</v>
+        <v>798.6930785541957</v>
       </c>
       <c r="U27" t="n">
-        <v>774.1404421955551</v>
+        <v>774.1404421955547</v>
       </c>
       <c r="V27" t="n">
-        <v>746.1320211358384</v>
+        <v>531.0607240991887</v>
       </c>
       <c r="W27" t="n">
-        <v>657.9281955531993</v>
+        <v>476.7334518661292</v>
       </c>
       <c r="X27" t="n">
-        <v>653.4914982065447</v>
+        <v>472.2967545194747</v>
       </c>
       <c r="Y27" t="n">
-        <v>427.8508051418725</v>
+        <v>246.6560614548023</v>
       </c>
     </row>
     <row r="28">
@@ -6358,55 +6358,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.02483657842356</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="C28" t="n">
-        <v>71.02483657842356</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="D28" t="n">
-        <v>71.02483657842356</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="E28" t="n">
-        <v>71.02483657842356</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="F28" t="n">
-        <v>71.02483657842356</v>
+        <v>109.3279746404798</v>
       </c>
       <c r="G28" t="n">
-        <v>71.02483657842356</v>
+        <v>109.3279746404798</v>
       </c>
       <c r="H28" t="n">
-        <v>71.02483657842356</v>
+        <v>155.995310058149</v>
       </c>
       <c r="I28" t="n">
-        <v>71.02483657842356</v>
+        <v>203.7246862548882</v>
       </c>
       <c r="J28" t="n">
-        <v>75.04272983029054</v>
+        <v>270.2039500901373</v>
       </c>
       <c r="K28" t="n">
-        <v>75.04272983029054</v>
+        <v>270.2039500901373</v>
       </c>
       <c r="L28" t="n">
-        <v>75.04272983029054</v>
+        <v>270.2039500901373</v>
       </c>
       <c r="M28" t="n">
-        <v>75.04272983029054</v>
+        <v>270.2039500901373</v>
       </c>
       <c r="N28" t="n">
-        <v>270.2039500901372</v>
+        <v>270.2039500901373</v>
       </c>
       <c r="O28" t="n">
-        <v>270.2039500901372</v>
+        <v>270.2039500901373</v>
       </c>
       <c r="P28" t="n">
-        <v>270.2039500901372</v>
+        <v>270.2039500901373</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.2039500901372</v>
+        <v>270.2039500901373</v>
       </c>
       <c r="R28" t="n">
-        <v>270.2039500901372</v>
+        <v>270.2039500901373</v>
       </c>
       <c r="S28" t="n">
         <v>247.5432591153497</v>
@@ -6440,25 +6440,25 @@
         <v>1024.508541979648</v>
       </c>
       <c r="C29" t="n">
-        <v>885.8369123686422</v>
+        <v>885.8369123686417</v>
       </c>
       <c r="D29" t="n">
-        <v>759.7242097666779</v>
+        <v>759.7242097666774</v>
       </c>
       <c r="E29" t="n">
-        <v>599.5642824986439</v>
+        <v>599.5642824986435</v>
       </c>
       <c r="F29" t="n">
-        <v>407.363610201946</v>
+        <v>407.3636102019456</v>
       </c>
       <c r="G29" t="n">
-        <v>199.3768190336798</v>
+        <v>199.3768190336793</v>
       </c>
       <c r="H29" t="n">
         <v>64.03178362070287</v>
       </c>
       <c r="I29" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="J29" t="n">
         <v>171.7479657778252</v>
@@ -6467,31 +6467,31 @@
         <v>377.2225660613047</v>
       </c>
       <c r="L29" t="n">
-        <v>636.4010735381362</v>
+        <v>636.4010735381361</v>
       </c>
       <c r="M29" t="n">
-        <v>929.9084159419192</v>
+        <v>929.9084159419189</v>
       </c>
       <c r="N29" t="n">
-        <v>1217.911753105989</v>
+        <v>1217.911753105988</v>
       </c>
       <c r="O29" t="n">
         <v>1464.702835936003</v>
       </c>
       <c r="P29" t="n">
-        <v>1662.071556543468</v>
+        <v>1662.071556543467</v>
       </c>
       <c r="Q29" t="n">
-        <v>1785.188566519004</v>
+        <v>1785.188566519003</v>
       </c>
       <c r="R29" t="n">
-        <v>1803.710490556108</v>
+        <v>1803.710490556107</v>
       </c>
       <c r="S29" t="n">
-        <v>1789.212139823153</v>
+        <v>1789.212139823151</v>
       </c>
       <c r="T29" t="n">
-        <v>1779.617585787406</v>
+        <v>1779.617585787404</v>
       </c>
       <c r="U29" t="n">
         <v>1742.012430054896</v>
@@ -6500,7 +6500,7 @@
         <v>1632.962733546947</v>
       </c>
       <c r="W29" t="n">
-        <v>1506.72447116363</v>
+        <v>1506.724471163629</v>
       </c>
       <c r="X29" t="n">
         <v>1358.378885074313</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>375.9124620030111</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="C30" t="n">
-        <v>375.9124620030111</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="D30" t="n">
-        <v>375.9124620030111</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="E30" t="n">
-        <v>375.9124620030111</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="F30" t="n">
-        <v>215.4847457202552</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="G30" t="n">
-        <v>215.4847457202552</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="H30" t="n">
-        <v>88.53483597596909</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="I30" t="n">
-        <v>88.53483597596909</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="J30" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="K30" t="n">
-        <v>74.94981493268951</v>
+        <v>74.94981493268943</v>
       </c>
       <c r="L30" t="n">
-        <v>193.509405900894</v>
+        <v>193.5094059008938</v>
       </c>
       <c r="M30" t="n">
-        <v>376.6175206836086</v>
+        <v>376.6175206836083</v>
       </c>
       <c r="N30" t="n">
-        <v>582.9918519763009</v>
+        <v>582.9918519763005</v>
       </c>
       <c r="O30" t="n">
-        <v>716.0369642505273</v>
+        <v>716.0369642505267</v>
       </c>
       <c r="P30" t="n">
-        <v>800.7408945687732</v>
+        <v>800.7408945687727</v>
       </c>
       <c r="Q30" t="n">
-        <v>794.5378533682771</v>
+        <v>800.7408945687727</v>
       </c>
       <c r="R30" t="n">
-        <v>794.5378533682771</v>
+        <v>800.7408945687727</v>
       </c>
       <c r="S30" t="n">
-        <v>794.5378533682771</v>
+        <v>800.7408945687727</v>
       </c>
       <c r="T30" t="n">
-        <v>577.4187403170508</v>
+        <v>583.6217815175464</v>
       </c>
       <c r="U30" t="n">
-        <v>552.8661039584098</v>
+        <v>559.0691451589054</v>
       </c>
       <c r="V30" t="n">
-        <v>524.857682898693</v>
+        <v>315.9894270625394</v>
       </c>
       <c r="W30" t="n">
-        <v>470.5304106656335</v>
+        <v>261.6621548294799</v>
       </c>
       <c r="X30" t="n">
-        <v>466.093713318979</v>
+        <v>46.64360583914537</v>
       </c>
       <c r="Y30" t="n">
-        <v>375.9124620030111</v>
+        <v>36.07420981112215</v>
       </c>
     </row>
     <row r="31">
@@ -6595,55 +6595,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.02483657842356</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="C31" t="n">
-        <v>71.02483657842356</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="D31" t="n">
-        <v>71.02483657842356</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="E31" t="n">
-        <v>71.02483657842356</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="F31" t="n">
-        <v>71.02483657842356</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="G31" t="n">
-        <v>71.02483657842356</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="H31" t="n">
-        <v>71.02483657842356</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="I31" t="n">
-        <v>71.02483657842356</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="J31" t="n">
-        <v>71.02483657842356</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="K31" t="n">
-        <v>71.02483657842356</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="L31" t="n">
-        <v>116.7335391553833</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="M31" t="n">
-        <v>116.7335391553833</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="N31" t="n">
-        <v>116.7335391553833</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="O31" t="n">
-        <v>116.7335391553833</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="P31" t="n">
-        <v>270.2039500901372</v>
+        <v>175.3520970651603</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.2039500901372</v>
+        <v>260.5952678013792</v>
       </c>
       <c r="R31" t="n">
-        <v>270.2039500901372</v>
+        <v>270.2039500901373</v>
       </c>
       <c r="S31" t="n">
         <v>247.5432591153497</v>
@@ -6658,13 +6658,13 @@
         <v>127.5991422483932</v>
       </c>
       <c r="W31" t="n">
-        <v>49.42730081096629</v>
+        <v>49.42730081096627</v>
       </c>
       <c r="X31" t="n">
-        <v>40.33753177868356</v>
+        <v>40.33753177868355</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
     </row>
     <row r="32">
@@ -6695,34 +6695,34 @@
         <v>64.03178362070287</v>
       </c>
       <c r="I32" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="J32" t="n">
-        <v>171.7479657778252</v>
+        <v>171.7479657778254</v>
       </c>
       <c r="K32" t="n">
-        <v>377.2225660613049</v>
+        <v>377.2225660613048</v>
       </c>
       <c r="L32" t="n">
-        <v>636.4010735381364</v>
+        <v>636.4010735381362</v>
       </c>
       <c r="M32" t="n">
-        <v>929.9084159419194</v>
+        <v>929.908415941919</v>
       </c>
       <c r="N32" t="n">
-        <v>1217.911753105989</v>
+        <v>1217.911753105988</v>
       </c>
       <c r="O32" t="n">
-        <v>1464.702835936004</v>
+        <v>1464.702835936003</v>
       </c>
       <c r="P32" t="n">
-        <v>1662.071556543468</v>
+        <v>1662.071556543467</v>
       </c>
       <c r="Q32" t="n">
-        <v>1785.188566519004</v>
+        <v>1785.188566519003</v>
       </c>
       <c r="R32" t="n">
-        <v>1803.710490556108</v>
+        <v>1803.710490556107</v>
       </c>
       <c r="S32" t="n">
         <v>1789.212139823152</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>559.8298041957122</v>
+        <v>370.0651299724636</v>
       </c>
       <c r="C33" t="n">
-        <v>370.4175299286759</v>
+        <v>370.0651299724636</v>
       </c>
       <c r="D33" t="n">
-        <v>209.6374136897077</v>
+        <v>370.0651299724636</v>
       </c>
       <c r="E33" t="n">
-        <v>36.07420981112216</v>
+        <v>196.5019260938781</v>
       </c>
       <c r="F33" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="G33" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="H33" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="I33" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="J33" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="K33" t="n">
-        <v>74.94981493268951</v>
+        <v>74.94981493268943</v>
       </c>
       <c r="L33" t="n">
-        <v>193.509405900894</v>
+        <v>193.5094059008938</v>
       </c>
       <c r="M33" t="n">
-        <v>376.6175206836086</v>
+        <v>376.6175206836083</v>
       </c>
       <c r="N33" t="n">
-        <v>582.9918519763009</v>
+        <v>582.9918519763005</v>
       </c>
       <c r="O33" t="n">
-        <v>716.0369642505273</v>
+        <v>716.0369642505267</v>
       </c>
       <c r="P33" t="n">
-        <v>800.7408945687732</v>
+        <v>800.7408945687727</v>
       </c>
       <c r="Q33" t="n">
-        <v>800.7408945687732</v>
+        <v>800.7408945687727</v>
       </c>
       <c r="R33" t="n">
-        <v>800.7408945687732</v>
+        <v>800.7408945687727</v>
       </c>
       <c r="S33" t="n">
-        <v>800.7408945687732</v>
+        <v>800.7408945687727</v>
       </c>
       <c r="T33" t="n">
-        <v>798.6930785541962</v>
+        <v>798.6930785541956</v>
       </c>
       <c r="U33" t="n">
-        <v>774.1404421955551</v>
+        <v>774.1404421955546</v>
       </c>
       <c r="V33" t="n">
-        <v>746.1320211358384</v>
+        <v>746.1320211358378</v>
       </c>
       <c r="W33" t="n">
-        <v>574.83589757039</v>
+        <v>691.8047489027782</v>
       </c>
       <c r="X33" t="n">
-        <v>570.3992002237354</v>
+        <v>472.2967545194746</v>
       </c>
       <c r="Y33" t="n">
-        <v>559.8298041957122</v>
+        <v>370.0651299724636</v>
       </c>
     </row>
     <row r="34">
@@ -6832,55 +6832,55 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="C34" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="D34" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="E34" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="F34" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="G34" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="H34" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="I34" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="J34" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="K34" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="L34" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="M34" t="n">
-        <v>36.07420981112216</v>
+        <v>222.6433429629303</v>
       </c>
       <c r="N34" t="n">
-        <v>116.7335391553833</v>
+        <v>270.2039500901373</v>
       </c>
       <c r="O34" t="n">
-        <v>116.7335391553833</v>
+        <v>270.2039500901373</v>
       </c>
       <c r="P34" t="n">
-        <v>270.2039500901372</v>
+        <v>270.2039500901373</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.2039500901372</v>
+        <v>270.2039500901373</v>
       </c>
       <c r="R34" t="n">
-        <v>270.2039500901372</v>
+        <v>270.2039500901373</v>
       </c>
       <c r="S34" t="n">
         <v>247.5432591153497</v>
@@ -6895,13 +6895,13 @@
         <v>127.5991422483932</v>
       </c>
       <c r="W34" t="n">
-        <v>49.42730081096629</v>
+        <v>49.42730081096627</v>
       </c>
       <c r="X34" t="n">
-        <v>40.33753177868356</v>
+        <v>40.33753177868355</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>772.2454280561331</v>
+        <v>772.2454280561326</v>
       </c>
       <c r="C35" t="n">
-        <v>669.3219062457949</v>
+        <v>669.3219062457945</v>
       </c>
       <c r="D35" t="n">
-        <v>578.9573114444989</v>
+        <v>578.9573114444984</v>
       </c>
       <c r="E35" t="n">
-        <v>454.5454919771333</v>
+        <v>454.5454919771327</v>
       </c>
       <c r="F35" t="n">
-        <v>298.0929274811037</v>
+        <v>298.0929274811031</v>
       </c>
       <c r="G35" t="n">
         <v>125.8542441135062</v>
@@ -6932,55 +6932,55 @@
         <v>26.25731650119761</v>
       </c>
       <c r="I35" t="n">
-        <v>33.89281886586253</v>
+        <v>33.89281886586249</v>
       </c>
       <c r="J35" t="n">
-        <v>204.6032952880005</v>
+        <v>91.63384773421811</v>
       </c>
       <c r="K35" t="n">
-        <v>204.6032952880005</v>
+        <v>332.1451684731326</v>
       </c>
       <c r="L35" t="n">
-        <v>424.2780557556246</v>
+        <v>380.5322977243441</v>
       </c>
       <c r="M35" t="n">
-        <v>749.212347457945</v>
+        <v>463.2482619025071</v>
       </c>
       <c r="N35" t="n">
-        <v>826.4243063963945</v>
+        <v>540.4602208409565</v>
       </c>
       <c r="O35" t="n">
-        <v>1108.252109681844</v>
+        <v>822.2880241264063</v>
       </c>
       <c r="P35" t="n">
-        <v>1108.252109681844</v>
+        <v>1054.693465189305</v>
       </c>
       <c r="Q35" t="n">
-        <v>1266.405840112816</v>
+        <v>1212.847195620277</v>
       </c>
       <c r="R35" t="n">
-        <v>1266.405840112816</v>
+        <v>1266.405840112815</v>
       </c>
       <c r="S35" t="n">
         <v>1287.232727014881</v>
       </c>
       <c r="T35" t="n">
-        <v>1312.865825059881</v>
+        <v>1312.86582505988</v>
       </c>
       <c r="U35" t="n">
         <v>1311.008777128039</v>
       </c>
       <c r="V35" t="n">
-        <v>1237.707188420759</v>
+        <v>1237.707188420758</v>
       </c>
       <c r="W35" t="n">
-        <v>1147.21703383811</v>
+        <v>1147.217033838109</v>
       </c>
       <c r="X35" t="n">
         <v>1034.619555549461</v>
       </c>
       <c r="Y35" t="n">
-        <v>899.2919225903646</v>
+        <v>899.2919225903642</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>239.1456589488004</v>
+        <v>186.96736933824</v>
       </c>
       <c r="C36" t="n">
-        <v>239.1456589488004</v>
+        <v>186.96736933824</v>
       </c>
       <c r="D36" t="n">
-        <v>239.1456589488004</v>
+        <v>186.96736933824</v>
       </c>
       <c r="E36" t="n">
-        <v>239.1456589488004</v>
+        <v>186.96736933824</v>
       </c>
       <c r="F36" t="n">
-        <v>78.71794266604454</v>
+        <v>186.96736933824</v>
       </c>
       <c r="G36" t="n">
-        <v>78.71794266604454</v>
+        <v>186.96736933824</v>
       </c>
       <c r="H36" t="n">
-        <v>78.71794266604454</v>
+        <v>186.96736933824</v>
       </c>
       <c r="I36" t="n">
-        <v>78.71794266604454</v>
+        <v>78.71794266604458</v>
       </c>
       <c r="J36" t="n">
         <v>26.25731650119761</v>
       </c>
       <c r="K36" t="n">
-        <v>65.13292162276497</v>
+        <v>65.1329216227649</v>
       </c>
       <c r="L36" t="n">
-        <v>183.6925125909694</v>
+        <v>183.6925125909693</v>
       </c>
       <c r="M36" t="n">
-        <v>366.8006273736841</v>
+        <v>366.8006273736838</v>
       </c>
       <c r="N36" t="n">
-        <v>573.1749586663764</v>
+        <v>573.1749586663761</v>
       </c>
       <c r="O36" t="n">
-        <v>706.2200709406027</v>
+        <v>706.2200709406023</v>
       </c>
       <c r="P36" t="n">
-        <v>790.9240012588486</v>
+        <v>790.9240012588483</v>
       </c>
       <c r="Q36" t="n">
-        <v>790.9240012588486</v>
+        <v>790.9240012588483</v>
       </c>
       <c r="R36" t="n">
-        <v>655.2012843449122</v>
+        <v>655.2012843449118</v>
       </c>
       <c r="S36" t="n">
-        <v>655.2012843449122</v>
+        <v>461.7823011637463</v>
       </c>
       <c r="T36" t="n">
-        <v>655.2012843449122</v>
+        <v>244.6631881125201</v>
       </c>
       <c r="U36" t="n">
-        <v>483.365516445864</v>
+        <v>244.6631881125201</v>
       </c>
       <c r="V36" t="n">
-        <v>483.365516445864</v>
+        <v>205.5465337706313</v>
       </c>
       <c r="W36" t="n">
-        <v>464.7863520134728</v>
+        <v>186.96736933824</v>
       </c>
       <c r="X36" t="n">
-        <v>464.7863520134728</v>
+        <v>186.96736933824</v>
       </c>
       <c r="Y36" t="n">
-        <v>239.1456589488004</v>
+        <v>186.96736933824</v>
       </c>
     </row>
     <row r="37">
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.24466372393397</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="C37" t="n">
-        <v>96.24466372393397</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="D37" t="n">
-        <v>96.24466372393397</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="E37" t="n">
-        <v>96.24466372393397</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="F37" t="n">
-        <v>96.24466372393397</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="G37" t="n">
-        <v>96.24466372393397</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="H37" t="n">
-        <v>96.24466372393397</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="I37" t="n">
-        <v>96.24466372393397</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="J37" t="n">
-        <v>96.24466372393397</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="K37" t="n">
-        <v>96.24466372393397</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="L37" t="n">
-        <v>96.24466372393397</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="M37" t="n">
-        <v>96.24466372393397</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="N37" t="n">
-        <v>96.24466372393397</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="O37" t="n">
         <v>109.433661472441</v>
@@ -7126,10 +7126,10 @@
         <v>109.433661472441</v>
       </c>
       <c r="U37" t="n">
-        <v>68.68105013795632</v>
+        <v>68.6810501379563</v>
       </c>
       <c r="V37" t="n">
-        <v>68.68105013795632</v>
+        <v>68.6810501379563</v>
       </c>
       <c r="W37" t="n">
         <v>26.25731650119761</v>
@@ -7154,13 +7154,13 @@
         <v>669.3219062457948</v>
       </c>
       <c r="D38" t="n">
-        <v>578.9573114444988</v>
+        <v>578.9573114444987</v>
       </c>
       <c r="E38" t="n">
-        <v>454.5454919771332</v>
+        <v>454.5454919771331</v>
       </c>
       <c r="F38" t="n">
-        <v>298.0929274811036</v>
+        <v>298.0929274811035</v>
       </c>
       <c r="G38" t="n">
         <v>125.8542441135062</v>
@@ -7169,37 +7169,37 @@
         <v>26.25731650119761</v>
       </c>
       <c r="I38" t="n">
-        <v>33.89281886586253</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="J38" t="n">
-        <v>86.31706979207718</v>
+        <v>196.9677929233355</v>
       </c>
       <c r="K38" t="n">
-        <v>86.31706979207718</v>
+        <v>437.47911366225</v>
       </c>
       <c r="L38" t="n">
-        <v>134.7041990432888</v>
+        <v>485.8662429134616</v>
       </c>
       <c r="M38" t="n">
-        <v>217.420163221452</v>
+        <v>568.5822070916246</v>
       </c>
       <c r="N38" t="n">
-        <v>540.4602208409563</v>
+        <v>645.7941660300739</v>
       </c>
       <c r="O38" t="n">
-        <v>822.2880241264062</v>
+        <v>868.7480090734714</v>
       </c>
       <c r="P38" t="n">
-        <v>1054.693465189305</v>
+        <v>1101.15345013637</v>
       </c>
       <c r="Q38" t="n">
-        <v>1212.847195620277</v>
+        <v>1259.307180567342</v>
       </c>
       <c r="R38" t="n">
-        <v>1266.405840112816</v>
+        <v>1312.865825059881</v>
       </c>
       <c r="S38" t="n">
-        <v>1287.232727014881</v>
+        <v>1312.865825059881</v>
       </c>
       <c r="T38" t="n">
         <v>1312.865825059881</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>134.506743173393</v>
+        <v>637.7217939249977</v>
       </c>
       <c r="C39" t="n">
-        <v>134.506743173393</v>
+        <v>637.7217939249977</v>
       </c>
       <c r="D39" t="n">
-        <v>134.506743173393</v>
+        <v>637.7217939249977</v>
       </c>
       <c r="E39" t="n">
-        <v>134.506743173393</v>
+        <v>464.1585900464121</v>
       </c>
       <c r="F39" t="n">
-        <v>134.506743173393</v>
+        <v>464.1585900464121</v>
       </c>
       <c r="G39" t="n">
-        <v>134.506743173393</v>
+        <v>313.9172790825261</v>
       </c>
       <c r="H39" t="n">
-        <v>134.506743173393</v>
+        <v>186.96736933824</v>
       </c>
       <c r="I39" t="n">
-        <v>26.25731650119761</v>
+        <v>78.71794266604458</v>
       </c>
       <c r="J39" t="n">
         <v>26.25731650119761</v>
       </c>
       <c r="K39" t="n">
-        <v>65.13292162276497</v>
+        <v>65.1329216227649</v>
       </c>
       <c r="L39" t="n">
-        <v>183.6925125909694</v>
+        <v>183.6925125909693</v>
       </c>
       <c r="M39" t="n">
-        <v>366.8006273736841</v>
+        <v>366.8006273736838</v>
       </c>
       <c r="N39" t="n">
-        <v>573.1749586663764</v>
+        <v>573.1749586663761</v>
       </c>
       <c r="O39" t="n">
-        <v>706.2200709406027</v>
+        <v>706.2200709406023</v>
       </c>
       <c r="P39" t="n">
-        <v>790.9240012588486</v>
+        <v>790.9240012588483</v>
       </c>
       <c r="Q39" t="n">
-        <v>790.9240012588486</v>
+        <v>790.9240012588483</v>
       </c>
       <c r="R39" t="n">
-        <v>790.9240012588486</v>
+        <v>790.9240012588483</v>
       </c>
       <c r="S39" t="n">
-        <v>790.9240012588486</v>
+        <v>656.3009583573889</v>
       </c>
       <c r="T39" t="n">
-        <v>790.9240012588486</v>
+        <v>656.3009583573889</v>
       </c>
       <c r="U39" t="n">
-        <v>790.9240012588486</v>
+        <v>656.3009583573889</v>
       </c>
       <c r="V39" t="n">
-        <v>598.2345950537604</v>
+        <v>656.3009583573889</v>
       </c>
       <c r="W39" t="n">
-        <v>579.6554306213691</v>
+        <v>637.7217939249977</v>
       </c>
       <c r="X39" t="n">
-        <v>360.1474362380654</v>
+        <v>637.7217939249977</v>
       </c>
       <c r="Y39" t="n">
-        <v>134.506743173393</v>
+        <v>637.7217939249977</v>
       </c>
     </row>
     <row r="40">
@@ -7312,7 +7312,7 @@
         <v>26.25731650119761</v>
       </c>
       <c r="D40" t="n">
-        <v>109.433661472441</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="E40" t="n">
         <v>109.433661472441</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>820.8965178780265</v>
+        <v>820.8965178780263</v>
       </c>
       <c r="C41" t="n">
-        <v>710.1824620766009</v>
+        <v>710.1824620766007</v>
       </c>
       <c r="D41" t="n">
-        <v>612.0273332842175</v>
+        <v>612.0273332842173</v>
       </c>
       <c r="E41" t="n">
-        <v>479.8249798257643</v>
+        <v>479.8249798257641</v>
       </c>
       <c r="F41" t="n">
-        <v>315.5818813386475</v>
+        <v>315.5818813386472</v>
       </c>
       <c r="G41" t="n">
         <v>135.5526639799621</v>
@@ -7409,25 +7409,25 @@
         <v>28.16520237656599</v>
       </c>
       <c r="J41" t="n">
-        <v>191.2401764340391</v>
+        <v>191.240176434039</v>
       </c>
       <c r="K41" t="n">
-        <v>221.7372224949947</v>
+        <v>424.1159948082886</v>
       </c>
       <c r="L41" t="n">
-        <v>508.3169480625962</v>
+        <v>710.69572037589</v>
       </c>
       <c r="M41" t="n">
-        <v>591.0329122407594</v>
+        <v>993.1663942416111</v>
       </c>
       <c r="N41" t="n">
-        <v>906.4374674955988</v>
+        <v>1070.37835318006</v>
       </c>
       <c r="O41" t="n">
-        <v>1180.629768416384</v>
+        <v>1106.378057784455</v>
       </c>
       <c r="P41" t="n">
-        <v>1180.629768416384</v>
+        <v>1331.14799648269</v>
       </c>
       <c r="Q41" t="n">
         <v>1331.14799648269</v>
@@ -7439,7 +7439,7 @@
         <v>1390.262523147965</v>
       </c>
       <c r="T41" t="n">
-        <v>1408.2601188283</v>
+        <v>1408.260118828299</v>
       </c>
       <c r="U41" t="n">
         <v>1398.612536905371</v>
@@ -7448,13 +7448,13 @@
         <v>1317.520414207002</v>
       </c>
       <c r="W41" t="n">
-        <v>1219.239725633266</v>
+        <v>1219.239725633265</v>
       </c>
       <c r="X41" t="n">
-        <v>1098.85171335353</v>
+        <v>1098.851713353529</v>
       </c>
       <c r="Y41" t="n">
-        <v>955.7335464033455</v>
+        <v>955.7335464033453</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>391.1406805221878</v>
+        <v>315.8251649578945</v>
       </c>
       <c r="C42" t="n">
-        <v>201.7284062551515</v>
+        <v>315.8251649578945</v>
       </c>
       <c r="D42" t="n">
-        <v>201.7284062551515</v>
+        <v>315.8251649578945</v>
       </c>
       <c r="E42" t="n">
-        <v>28.16520237656599</v>
+        <v>315.8251649578945</v>
       </c>
       <c r="F42" t="n">
-        <v>28.16520237656599</v>
+        <v>315.8251649578945</v>
       </c>
       <c r="G42" t="n">
-        <v>28.16520237656599</v>
+        <v>315.8251649578945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.16520237656599</v>
+        <v>188.8752552136084</v>
       </c>
       <c r="I42" t="n">
-        <v>28.16520237656599</v>
+        <v>80.62582854141296</v>
       </c>
       <c r="J42" t="n">
         <v>28.16520237656599</v>
       </c>
       <c r="K42" t="n">
-        <v>67.04080749813335</v>
+        <v>67.04080749813328</v>
       </c>
       <c r="L42" t="n">
-        <v>185.6003984663378</v>
+        <v>185.6003984663377</v>
       </c>
       <c r="M42" t="n">
-        <v>368.7085132490524</v>
+        <v>368.7085132490522</v>
       </c>
       <c r="N42" t="n">
-        <v>575.0828445417447</v>
+        <v>575.0828445417444</v>
       </c>
       <c r="O42" t="n">
-        <v>708.1279568159711</v>
+        <v>708.1279568159706</v>
       </c>
       <c r="P42" t="n">
-        <v>792.8318871342171</v>
+        <v>792.8318871342166</v>
       </c>
       <c r="Q42" t="n">
-        <v>792.8318871342171</v>
+        <v>792.8318871342166</v>
       </c>
       <c r="R42" t="n">
-        <v>792.8318871342171</v>
+        <v>657.10917022028</v>
       </c>
       <c r="S42" t="n">
-        <v>792.8318871342171</v>
+        <v>463.6901870391146</v>
       </c>
       <c r="T42" t="n">
-        <v>792.8318871342171</v>
+        <v>342.2457106315094</v>
       </c>
       <c r="U42" t="n">
-        <v>792.8318871342171</v>
+        <v>342.2457106315094</v>
       </c>
       <c r="V42" t="n">
-        <v>549.7521690378512</v>
+        <v>342.1948633813734</v>
       </c>
       <c r="W42" t="n">
-        <v>523.3824706143724</v>
+        <v>315.8251649578945</v>
       </c>
       <c r="X42" t="n">
-        <v>523.3824706143724</v>
+        <v>315.8251649578945</v>
       </c>
       <c r="Y42" t="n">
-        <v>523.3824706143724</v>
+        <v>315.8251649578945</v>
       </c>
     </row>
     <row r="43">
@@ -7546,25 +7546,25 @@
         <v>28.16520237656599</v>
       </c>
       <c r="C43" t="n">
-        <v>28.16520237656599</v>
+        <v>101.5651895307032</v>
       </c>
       <c r="D43" t="n">
-        <v>28.16520237656599</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="E43" t="n">
-        <v>28.16520237656599</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="F43" t="n">
-        <v>28.16520237656599</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="G43" t="n">
-        <v>28.16520237656599</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="H43" t="n">
-        <v>28.16520237656599</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="I43" t="n">
-        <v>28.16520237656599</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="J43" t="n">
         <v>131.4786083064313</v>
@@ -7600,10 +7600,10 @@
         <v>131.4786083064313</v>
       </c>
       <c r="U43" t="n">
-        <v>82.93546298085906</v>
+        <v>82.93546298085904</v>
       </c>
       <c r="V43" t="n">
-        <v>78.37947000441224</v>
+        <v>78.37947000441223</v>
       </c>
       <c r="W43" t="n">
         <v>28.16520237656599</v>
@@ -7649,31 +7649,31 @@
         <v>191.240176434039</v>
       </c>
       <c r="K44" t="n">
-        <v>191.240176434039</v>
+        <v>424.1159948082886</v>
       </c>
       <c r="L44" t="n">
-        <v>241.795783242153</v>
+        <v>710.69572037589</v>
       </c>
       <c r="M44" t="n">
-        <v>562.7043437367059</v>
+        <v>1031.604280870443</v>
       </c>
       <c r="N44" t="n">
-        <v>878.1088989915452</v>
+        <v>1108.816239808892</v>
       </c>
       <c r="O44" t="n">
-        <v>1152.30119991233</v>
+        <v>1144.815944413287</v>
       </c>
       <c r="P44" t="n">
-        <v>1377.071138610564</v>
+        <v>1198.627364096718</v>
       </c>
       <c r="Q44" t="n">
-        <v>1377.071138610564</v>
+        <v>1349.145592163025</v>
       </c>
       <c r="R44" t="n">
-        <v>1377.071138610564</v>
+        <v>1395.068734290899</v>
       </c>
       <c r="S44" t="n">
-        <v>1390.262523147965</v>
+        <v>1408.2601188283</v>
       </c>
       <c r="T44" t="n">
         <v>1408.2601188283</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>64.25054283577811</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="C45" t="n">
-        <v>64.25054283577811</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="D45" t="n">
-        <v>64.25054283577811</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="E45" t="n">
-        <v>64.25054283577811</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="F45" t="n">
         <v>28.16520237656599</v>
@@ -7740,37 +7740,37 @@
         <v>575.0828445417444</v>
       </c>
       <c r="O45" t="n">
-        <v>708.1279568159707</v>
+        <v>708.1279568159706</v>
       </c>
       <c r="P45" t="n">
-        <v>792.8318871342167</v>
+        <v>792.8318871342166</v>
       </c>
       <c r="Q45" t="n">
-        <v>792.8318871342167</v>
+        <v>792.8318871342166</v>
       </c>
       <c r="R45" t="n">
-        <v>792.8318871342167</v>
+        <v>792.8318871342166</v>
       </c>
       <c r="S45" t="n">
-        <v>792.8318871342167</v>
+        <v>599.4129039530511</v>
       </c>
       <c r="T45" t="n">
-        <v>792.8318871342167</v>
+        <v>599.4129039530511</v>
       </c>
       <c r="U45" t="n">
-        <v>553.2079537389264</v>
+        <v>599.4129039530511</v>
       </c>
       <c r="V45" t="n">
-        <v>553.1571064887904</v>
+        <v>517.0717660295783</v>
       </c>
       <c r="W45" t="n">
-        <v>283.7585372190817</v>
+        <v>247.6731967598696</v>
       </c>
       <c r="X45" t="n">
-        <v>64.25054283577811</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="Y45" t="n">
-        <v>64.25054283577811</v>
+        <v>28.16520237656599</v>
       </c>
     </row>
     <row r="46">
@@ -7789,19 +7789,19 @@
         <v>28.16520237656599</v>
       </c>
       <c r="E46" t="n">
-        <v>57.41005479799206</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="F46" t="n">
-        <v>57.41005479799206</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="G46" t="n">
-        <v>57.41005479799206</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="H46" t="n">
-        <v>131.4786083064313</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="I46" t="n">
-        <v>131.4786083064313</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="J46" t="n">
         <v>131.4786083064313</v>
@@ -8772,19 +8772,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>120.5473811624956</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
         <v>239.5303559843451</v>
       </c>
       <c r="N12" t="n">
-        <v>224.8661044510105</v>
+        <v>102.1549380769538</v>
       </c>
       <c r="O12" t="n">
-        <v>243.5449469681793</v>
+        <v>239.4242766223738</v>
       </c>
       <c r="P12" t="n">
-        <v>199.2891999529628</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9006,22 +9006,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>132.1051855825678</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>151.9668072660658</v>
+        <v>239.5303559843451</v>
       </c>
       <c r="N15" t="n">
-        <v>224.8661044510105</v>
+        <v>183.593793305134</v>
       </c>
       <c r="O15" t="n">
         <v>243.5449469681793</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786793</v>
+        <v>120.8043485046935</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9243,22 +9243,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>132.1051855825678</v>
       </c>
       <c r="L18" t="n">
-        <v>120.5473811624956</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
         <v>239.5303559843451</v>
       </c>
       <c r="N18" t="n">
-        <v>224.8661044510105</v>
+        <v>137.3025557327313</v>
       </c>
       <c r="O18" t="n">
         <v>243.5449469681793</v>
       </c>
       <c r="P18" t="n">
-        <v>199.2891999529628</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9483,13 +9483,13 @@
         <v>132.1051855825678</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566416</v>
+        <v>152.7409950383623</v>
       </c>
       <c r="M21" t="n">
-        <v>151.9668072660658</v>
+        <v>239.5303559843451</v>
       </c>
       <c r="N21" t="n">
-        <v>224.8661044510105</v>
+        <v>224.8661044510104</v>
       </c>
       <c r="O21" t="n">
         <v>243.5449469681793</v>
@@ -9723,16 +9723,16 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>239.5303559843452</v>
+        <v>239.5303559843451</v>
       </c>
       <c r="N24" t="n">
-        <v>220.7454341052052</v>
+        <v>224.8661044510105</v>
       </c>
       <c r="O24" t="n">
-        <v>120.8337805941224</v>
+        <v>120.8337805941225</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786793</v>
+        <v>202.2432037328738</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>179.8756704904437</v>
+        <v>179.8756704904436</v>
       </c>
       <c r="C11" t="n">
-        <v>155.9939274937892</v>
+        <v>155.9939274937891</v>
       </c>
       <c r="D11" t="n">
         <v>143.5605897548376</v>
       </c>
       <c r="E11" t="n">
-        <v>177.2673421742465</v>
+        <v>177.2673421742464</v>
       </c>
       <c r="F11" t="n">
         <v>208.9876797526238</v>
       </c>
       <c r="G11" t="n">
-        <v>101.9047710614197</v>
+        <v>129.2082877281244</v>
       </c>
       <c r="H11" t="n">
-        <v>29.98943286368323</v>
+        <v>152.70059923774</v>
       </c>
       <c r="I11" t="n">
-        <v>46.38701225037786</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>28.20762267428237</v>
       </c>
       <c r="U11" t="n">
-        <v>55.9381183540775</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.957047347705497</v>
+        <v>126.6682137217623</v>
       </c>
       <c r="W11" t="n">
-        <v>143.6848939383772</v>
+        <v>20.97372756432043</v>
       </c>
       <c r="X11" t="n">
-        <v>118.7571531438482</v>
+        <v>42.85997803325967</v>
       </c>
       <c r="Y11" t="n">
         <v>188.0739975310602</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>179.8756704904437</v>
+        <v>179.8756704904436</v>
       </c>
       <c r="C14" t="n">
-        <v>88.79390046071948</v>
+        <v>33.28276111973236</v>
       </c>
       <c r="D14" t="n">
-        <v>20.84942338078078</v>
+        <v>143.5605897548376</v>
       </c>
       <c r="E14" t="n">
-        <v>177.2673421742465</v>
+        <v>54.55617580018969</v>
       </c>
       <c r="F14" t="n">
         <v>208.9876797526238</v>
       </c>
       <c r="G14" t="n">
-        <v>224.6159374354766</v>
+        <v>157.4159104024068</v>
       </c>
       <c r="H14" t="n">
-        <v>29.98943286368321</v>
+        <v>152.70059923774</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>126.6682137217624</v>
+        <v>126.6682137217623</v>
       </c>
       <c r="W14" t="n">
         <v>143.6848939383772</v>
       </c>
       <c r="X14" t="n">
-        <v>165.5711444073165</v>
+        <v>165.5711444073164</v>
       </c>
       <c r="Y14" t="n">
         <v>188.0739975310602</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>2.131628207280301e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>440965.9975882299</v>
+        <v>440965.99758823</v>
       </c>
       <c r="C2" t="n">
         <v>440965.9975882299</v>
@@ -26320,25 +26320,25 @@
         <v>440965.9975882299</v>
       </c>
       <c r="E2" t="n">
-        <v>379995.0445102399</v>
+        <v>379995.0445102397</v>
       </c>
       <c r="F2" t="n">
-        <v>379995.0445102396</v>
+        <v>379995.0445102397</v>
       </c>
       <c r="G2" t="n">
-        <v>441859.2744292681</v>
+        <v>441859.274429268</v>
       </c>
       <c r="H2" t="n">
-        <v>441859.2744292679</v>
+        <v>441859.2744292682</v>
       </c>
       <c r="I2" t="n">
-        <v>441859.2744292681</v>
+        <v>441859.274429268</v>
       </c>
       <c r="J2" t="n">
-        <v>441859.2744292681</v>
+        <v>441859.274429268</v>
       </c>
       <c r="K2" t="n">
-        <v>441859.2744292679</v>
+        <v>441859.274429268</v>
       </c>
       <c r="L2" t="n">
         <v>441859.2744292681</v>
@@ -26347,10 +26347,10 @@
         <v>441859.2744292682</v>
       </c>
       <c r="N2" t="n">
-        <v>441859.2744292681</v>
+        <v>441859.2744292684</v>
       </c>
       <c r="O2" t="n">
-        <v>441859.274429268</v>
+        <v>441859.2744292682</v>
       </c>
       <c r="P2" t="n">
         <v>441859.2744292681</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>275420.9947649911</v>
+        <v>275420.9947649909</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>101147.8182889625</v>
       </c>
       <c r="M3" t="n">
-        <v>28312.50137812927</v>
+        <v>28312.50137812922</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68757.72909053825</v>
+        <v>68757.72909053827</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,13 +26427,13 @@
         <v>344201.4566840517</v>
       </c>
       <c r="F4" t="n">
-        <v>344201.4566840516</v>
+        <v>344201.4566840517</v>
       </c>
       <c r="G4" t="n">
-        <v>414704.5356053187</v>
+        <v>414704.5356053188</v>
       </c>
       <c r="H4" t="n">
-        <v>414704.5356053187</v>
+        <v>414704.5356053188</v>
       </c>
       <c r="I4" t="n">
         <v>414704.5356053187</v>
@@ -26445,13 +26445,13 @@
         <v>413278.3638748868</v>
       </c>
       <c r="L4" t="n">
-        <v>413278.3638748867</v>
+        <v>413278.3638748868</v>
       </c>
       <c r="M4" t="n">
-        <v>412733.9956987765</v>
+        <v>412733.9956987766</v>
       </c>
       <c r="N4" t="n">
-        <v>412733.9956987765</v>
+        <v>412733.9956987766</v>
       </c>
       <c r="O4" t="n">
         <v>412836.9242581265</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26051.38465538858</v>
+        <v>26051.38465538857</v>
       </c>
       <c r="F5" t="n">
-        <v>26051.38465538858</v>
+        <v>26051.38465538857</v>
       </c>
       <c r="G5" t="n">
         <v>36680.62957505706</v>
@@ -26488,28 +26488,28 @@
         <v>36680.62957505706</v>
       </c>
       <c r="I5" t="n">
-        <v>36680.62957505707</v>
+        <v>36680.62957505706</v>
       </c>
       <c r="J5" t="n">
         <v>47579.79330930412</v>
       </c>
       <c r="K5" t="n">
-        <v>47579.79330930412</v>
+        <v>47579.79330930411</v>
       </c>
       <c r="L5" t="n">
-        <v>47579.79330930412</v>
+        <v>47579.79330930411</v>
       </c>
       <c r="M5" t="n">
-        <v>43094.2089917089</v>
+        <v>43094.20899170889</v>
       </c>
       <c r="N5" t="n">
         <v>43094.2089917089</v>
       </c>
       <c r="O5" t="n">
-        <v>43895.8092789131</v>
+        <v>43895.80927891309</v>
       </c>
       <c r="P5" t="n">
-        <v>43895.8092789131</v>
+        <v>43895.80927891309</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-44049.75037394536</v>
+        <v>-44054.21675815049</v>
       </c>
       <c r="C6" t="n">
-        <v>-44049.75037394536</v>
+        <v>-44054.21675815061</v>
       </c>
       <c r="D6" t="n">
-        <v>-44049.75037394536</v>
+        <v>-44054.21675815055</v>
       </c>
       <c r="E6" t="n">
-        <v>-265678.7915941915</v>
+        <v>-265988.1127437865</v>
       </c>
       <c r="F6" t="n">
-        <v>9742.203170799374</v>
+        <v>9432.882021204297</v>
       </c>
       <c r="G6" t="n">
-        <v>-110673.7090400702</v>
+        <v>-110673.7090400703</v>
       </c>
       <c r="H6" t="n">
-        <v>-9525.89075110788</v>
+        <v>-9525.890751107581</v>
       </c>
       <c r="I6" t="n">
-        <v>-9525.890751107712</v>
+        <v>-9525.890751107756</v>
       </c>
       <c r="J6" t="n">
-        <v>-174063.3982019782</v>
+        <v>-174063.3982019785</v>
       </c>
       <c r="K6" t="n">
-        <v>-18998.88275492298</v>
+        <v>-18998.88275492284</v>
       </c>
       <c r="L6" t="n">
-        <v>-120146.7010438852</v>
+        <v>-120146.7010438853</v>
       </c>
       <c r="M6" t="n">
-        <v>-42281.43163934644</v>
+        <v>-42281.43163934648</v>
       </c>
       <c r="N6" t="n">
-        <v>-13968.93026121732</v>
+        <v>-13968.93026121702</v>
       </c>
       <c r="O6" t="n">
-        <v>-83631.18819830989</v>
+        <v>-83631.1881983097</v>
       </c>
       <c r="P6" t="n">
-        <v>-14873.45910777154</v>
+        <v>-14873.45910777165</v>
       </c>
     </row>
   </sheetData>
@@ -26744,37 +26744,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716954</v>
       </c>
       <c r="F3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716955</v>
       </c>
       <c r="G3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716955</v>
       </c>
       <c r="H3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716955</v>
       </c>
       <c r="I3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716955</v>
       </c>
       <c r="J3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716955</v>
       </c>
       <c r="K3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716955</v>
       </c>
       <c r="L3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716955</v>
       </c>
       <c r="M3" t="n">
-        <v>103.8244619716957</v>
+        <v>103.8244619716955</v>
       </c>
       <c r="N3" t="n">
-        <v>103.8244619716957</v>
+        <v>103.8244619716955</v>
       </c>
       <c r="O3" t="n">
-        <v>103.8244619716957</v>
+        <v>103.8244619716955</v>
       </c>
       <c r="P3" t="n">
         <v>103.8244619716955</v>
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>122.7111663740567</v>
+      </c>
+      <c r="F4" t="n">
+        <v>122.7111663740567</v>
+      </c>
+      <c r="G4" t="n">
+        <v>122.7111663740567</v>
+      </c>
+      <c r="H4" t="n">
+        <v>122.7111663740567</v>
+      </c>
+      <c r="I4" t="n">
         <v>122.7111663740568</v>
       </c>
-      <c r="F4" t="n">
-        <v>122.7111663740568</v>
-      </c>
-      <c r="G4" t="n">
-        <v>122.7111663740568</v>
-      </c>
-      <c r="H4" t="n">
-        <v>122.7111663740568</v>
-      </c>
-      <c r="I4" t="n">
-        <v>122.7111663740569</v>
-      </c>
       <c r="J4" t="n">
-        <v>450.9276226390271</v>
+        <v>450.927622639027</v>
       </c>
       <c r="K4" t="n">
-        <v>450.927622639027</v>
+        <v>450.9276226390268</v>
       </c>
       <c r="L4" t="n">
-        <v>450.927622639027</v>
+        <v>450.9276226390268</v>
       </c>
       <c r="M4" t="n">
         <v>328.2164562649701</v>
@@ -26826,7 +26826,7 @@
         <v>328.2164562649701</v>
       </c>
       <c r="O4" t="n">
-        <v>352.0650297070749</v>
+        <v>352.0650297070748</v>
       </c>
       <c r="P4" t="n">
         <v>352.0650297070749</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.48581120507953</v>
+        <v>86.48581120507959</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>126.4347728612031</v>
       </c>
       <c r="M2" t="n">
-        <v>35.39062672266158</v>
+        <v>35.39062672266152</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.77318255390287</v>
+        <v>78.77318255390293</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716954</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>328.2164562649701</v>
+        <v>328.2164562649702</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.84857344210479</v>
+        <v>23.84857344210468</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>86.48581120507953</v>
+        <v>86.48581120507959</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,10 +28111,10 @@
         <v>194.2115698873897</v>
       </c>
       <c r="J11" t="n">
-        <v>147.5499868594113</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="K11" t="n">
-        <v>128.0816491438954</v>
+        <v>5.370482769838716</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,16 +28123,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>44.7192886584513</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.55824001833906</v>
+        <v>134.3271120228692</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.55996792937719</v>
+        <v>88.55996792937729</v>
       </c>
       <c r="R11" t="n">
         <v>194.2115698873897</v>
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>170.9435394983389</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28178,19 +28178,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>67.39082088552274</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>148.7388978542471</v>
       </c>
       <c r="H12" t="n">
-        <v>125.6804106468432</v>
+        <v>2.969244272786491</v>
       </c>
       <c r="I12" t="n">
         <v>107.1669324054735</v>
       </c>
       <c r="J12" t="n">
-        <v>51.93601990319846</v>
+        <v>51.93601990319851</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,16 +28211,16 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.141010788491243</v>
+        <v>6.141010788491311</v>
       </c>
       <c r="R12" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S12" t="n">
-        <v>191.4847933493538</v>
+        <v>191.4847933493539</v>
       </c>
       <c r="T12" t="n">
-        <v>194.2115698873897</v>
+        <v>92.23675554665719</v>
       </c>
       <c r="U12" t="n">
         <v>194.2115698873897</v>
@@ -28229,10 +28229,10 @@
         <v>194.2115698873897</v>
       </c>
       <c r="W12" t="n">
-        <v>143.9934172029547</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="X12" t="n">
-        <v>94.60174806541376</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="Y12" t="n">
         <v>194.2115698873897</v>
@@ -28245,16 +28245,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.2115698873897</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>194.1285255756864</v>
       </c>
       <c r="F13" t="n">
         <v>194.2115698873897</v>
@@ -28269,28 +28269,28 @@
         <v>164.7090929584652</v>
       </c>
       <c r="J13" t="n">
-        <v>119.9013618977274</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="K13" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346803</v>
       </c>
       <c r="L13" t="n">
-        <v>154.1516967876647</v>
+        <v>31.44053041360793</v>
       </c>
       <c r="M13" t="n">
-        <v>24.46691421597135</v>
+        <v>24.46691421597142</v>
       </c>
       <c r="N13" t="n">
-        <v>138.4992047233227</v>
+        <v>15.78803834926589</v>
       </c>
       <c r="O13" t="n">
-        <v>36.80265358589529</v>
+        <v>159.5138199599521</v>
       </c>
       <c r="P13" t="n">
-        <v>94.38566335379539</v>
+        <v>57.89996696047072</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.8163712014149</v>
+        <v>126.816371201415</v>
       </c>
       <c r="R13" t="n">
         <v>194.2115698873897</v>
@@ -28348,10 +28348,10 @@
         <v>194.2115698873897</v>
       </c>
       <c r="J14" t="n">
-        <v>147.5499868594113</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="K14" t="n">
-        <v>5.370482769838596</v>
+        <v>20.48775281635608</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28360,16 +28360,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>44.7192886584513</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>136.2694063923959</v>
+        <v>13.55824001833916</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.55996792937719</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="R14" t="n">
         <v>194.2115698873897</v>
@@ -28418,16 +28418,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3564038929609</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H15" t="n">
-        <v>125.6804106468432</v>
+        <v>65.20801497177339</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J15" t="n">
-        <v>51.93601990319846</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,13 +28448,13 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.141010788491243</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>11.65432337074023</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S15" t="n">
-        <v>191.4847933493538</v>
+        <v>68.77362697529709</v>
       </c>
       <c r="T15" t="n">
         <v>194.2115698873897</v>
@@ -28482,16 +28482,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.2115698873897</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>194.2115698873897</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>161.4364676063749</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
         <v>138.9268822184467</v>
@@ -28503,28 +28503,28 @@
         <v>165.7818614221724</v>
       </c>
       <c r="I16" t="n">
-        <v>194.2115698873897</v>
+        <v>164.7090929584652</v>
       </c>
       <c r="J16" t="n">
-        <v>194.2115698873897</v>
+        <v>119.9013618977274</v>
       </c>
       <c r="K16" t="n">
-        <v>66.47413857346798</v>
+        <v>132.959552371248</v>
       </c>
       <c r="L16" t="n">
-        <v>31.44053041360787</v>
+        <v>154.1516967876647</v>
       </c>
       <c r="M16" t="n">
-        <v>147.1780805900282</v>
+        <v>24.4669142159714</v>
       </c>
       <c r="N16" t="n">
-        <v>15.78803834926582</v>
+        <v>15.78803834926586</v>
       </c>
       <c r="O16" t="n">
-        <v>36.80265358589529</v>
+        <v>36.80265358589533</v>
       </c>
       <c r="P16" t="n">
-        <v>57.89996696047066</v>
+        <v>180.6111333345274</v>
       </c>
       <c r="Q16" t="n">
         <v>194.2115698873897</v>
@@ -28582,13 +28582,13 @@
         <v>320.6463427485928</v>
       </c>
       <c r="I17" t="n">
-        <v>240.5985821377675</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="J17" t="n">
-        <v>198.5875524941748</v>
+        <v>75.87638612011804</v>
       </c>
       <c r="K17" t="n">
-        <v>5.370482769838596</v>
+        <v>5.370482769838681</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28600,13 +28600,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>86.34782838981936</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>43.60330102626428</v>
+        <v>13.55824001833916</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.55996792937719</v>
+        <v>177.1196085832279</v>
       </c>
       <c r="R17" t="n">
         <v>194.2115698873897</v>
@@ -28618,7 +28618,7 @@
         <v>222.4191925616721</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1496882414672</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="V17" t="n">
         <v>320.6463427485928</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>54.03932802360899</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -28652,19 +28652,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>36.11227274587149</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>26.02773148019021</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H18" t="n">
-        <v>17.59641530457398</v>
+        <v>125.6804106468432</v>
       </c>
       <c r="I18" t="n">
         <v>107.1669324054735</v>
       </c>
       <c r="J18" t="n">
-        <v>51.93601990319846</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,19 +28685,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.141010788491243</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.3654897447971</v>
+        <v>11.65432337074037</v>
       </c>
       <c r="S18" t="n">
         <v>191.4847933493538</v>
       </c>
       <c r="T18" t="n">
-        <v>214.947921920714</v>
+        <v>164.9409572701346</v>
       </c>
       <c r="U18" t="n">
-        <v>114.5165276872805</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -28706,7 +28706,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>94.60174806541386</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28746,25 +28746,25 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K19" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346801</v>
       </c>
       <c r="L19" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360791</v>
       </c>
       <c r="M19" t="n">
-        <v>24.46691421597135</v>
+        <v>24.4669142159714</v>
       </c>
       <c r="N19" t="n">
-        <v>15.78803834926582</v>
+        <v>15.78803834926586</v>
       </c>
       <c r="O19" t="n">
-        <v>36.80265358589529</v>
+        <v>36.80265358589533</v>
       </c>
       <c r="P19" t="n">
-        <v>57.89996696047066</v>
+        <v>57.89996696047071</v>
       </c>
       <c r="Q19" t="n">
-        <v>126.8163712014149</v>
+        <v>126.816371201415</v>
       </c>
       <c r="R19" t="n">
         <v>203.2148443806685</v>
@@ -28819,31 +28819,31 @@
         <v>320.6463427485928</v>
       </c>
       <c r="I20" t="n">
-        <v>240.5985821377675</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="J20" t="n">
-        <v>75.87638612011799</v>
+        <v>164.4360267739688</v>
       </c>
       <c r="K20" t="n">
-        <v>5.370482769838596</v>
+        <v>5.370482769838681</v>
       </c>
       <c r="L20" t="n">
-        <v>68.87725131731548</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>39.15968740621528</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>44.7192886584513</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>86.34782838981934</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.55824001833906</v>
+        <v>13.55824001833916</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.55996792937719</v>
+        <v>88.55996792937725</v>
       </c>
       <c r="R20" t="n">
         <v>194.2115698873897</v>
@@ -28855,7 +28855,7 @@
         <v>222.4191925616721</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1496882414672</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="V20" t="n">
         <v>320.6463427485928</v>
@@ -28880,7 +28880,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>64.80698515030907</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -28889,10 +28889,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>56.88045456615041</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>26.02773148019022</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H21" t="n">
         <v>125.6804106468432</v>
@@ -28901,7 +28901,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J21" t="n">
-        <v>51.93601990319846</v>
+        <v>51.9360199031985</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28928,22 +28928,22 @@
         <v>134.3654897447971</v>
       </c>
       <c r="S21" t="n">
-        <v>191.4847933493538</v>
+        <v>89.54180879557597</v>
       </c>
       <c r="T21" t="n">
-        <v>214.947921920714</v>
+        <v>92.23675554665719</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2276940613373</v>
+        <v>114.5165276872806</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>117.9377545413455</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>94.60174806541376</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -28983,25 +28983,25 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K22" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346801</v>
       </c>
       <c r="L22" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360791</v>
       </c>
       <c r="M22" t="n">
-        <v>24.46691421597135</v>
+        <v>24.4669142159714</v>
       </c>
       <c r="N22" t="n">
-        <v>15.78803834926582</v>
+        <v>15.78803834926586</v>
       </c>
       <c r="O22" t="n">
-        <v>36.80265358589529</v>
+        <v>36.80265358589533</v>
       </c>
       <c r="P22" t="n">
-        <v>57.89996696047066</v>
+        <v>57.89996696047071</v>
       </c>
       <c r="Q22" t="n">
-        <v>126.8163712014149</v>
+        <v>126.816371201415</v>
       </c>
       <c r="R22" t="n">
         <v>203.2148443806685</v>
@@ -29056,13 +29056,13 @@
         <v>320.6463427485928</v>
       </c>
       <c r="I23" t="n">
-        <v>240.5985821377675</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="J23" t="n">
-        <v>75.87638612011799</v>
+        <v>136.7055310941739</v>
       </c>
       <c r="K23" t="n">
-        <v>5.370482769838596</v>
+        <v>5.370482769838681</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29071,16 +29071,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>44.7192886584514</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>86.34782838981945</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.55824001833906</v>
+        <v>13.55824001833916</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.55996792937719</v>
+        <v>88.55996792937725</v>
       </c>
       <c r="R23" t="n">
         <v>194.2115698873897</v>
@@ -29092,7 +29092,7 @@
         <v>320.6463427485928</v>
       </c>
       <c r="U23" t="n">
-        <v>259.9594767780774</v>
+        <v>250.1496882414672</v>
       </c>
       <c r="V23" t="n">
         <v>320.6463427485928</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>54.03932802360879</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
@@ -29129,16 +29129,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>26.02773148019011</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H24" t="n">
-        <v>125.6804106468432</v>
+        <v>2.969244272786426</v>
       </c>
       <c r="I24" t="n">
-        <v>107.1669324054735</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>51.93601990319846</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,19 +29159,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.141010788491243</v>
+        <v>6.14101078849129</v>
       </c>
       <c r="R24" t="n">
-        <v>134.3654897447971</v>
+        <v>11.65432337074031</v>
       </c>
       <c r="S24" t="n">
-        <v>68.77362697529688</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T24" t="n">
-        <v>214.947921920714</v>
+        <v>143.25571251306</v>
       </c>
       <c r="U24" t="n">
-        <v>129.143698719068</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -29220,25 +29220,25 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K25" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346801</v>
       </c>
       <c r="L25" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360791</v>
       </c>
       <c r="M25" t="n">
-        <v>24.46691421597135</v>
+        <v>24.4669142159714</v>
       </c>
       <c r="N25" t="n">
-        <v>15.78803834926582</v>
+        <v>15.78803834926586</v>
       </c>
       <c r="O25" t="n">
-        <v>36.80265358589529</v>
+        <v>36.80265358589533</v>
       </c>
       <c r="P25" t="n">
-        <v>57.89996696047066</v>
+        <v>57.89996696047071</v>
       </c>
       <c r="Q25" t="n">
-        <v>126.8163712014149</v>
+        <v>126.816371201415</v>
       </c>
       <c r="R25" t="n">
         <v>203.2148443806685</v>
@@ -29305,7 +29305,7 @@
         <v>212.9205840662826</v>
       </c>
       <c r="M26" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662837</v>
       </c>
       <c r="N26" t="n">
         <v>212.9205840662826</v>
@@ -29351,13 +29351,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -29369,13 +29369,13 @@
         <v>148.7388978542471</v>
       </c>
       <c r="H27" t="n">
-        <v>125.6804106468432</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>107.1669324054735</v>
+        <v>24.37130992507338</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>51.9360199031985</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.141010788491243</v>
+        <v>6.14101078849129</v>
       </c>
       <c r="R27" t="n">
         <v>134.3654897447971</v>
@@ -29411,10 +29411,10 @@
         <v>212.9205840662826</v>
       </c>
       <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
         <v>212.9205840662826</v>
-      </c>
-      <c r="W27" t="n">
-        <v>179.3827962501989</v>
       </c>
       <c r="X27" t="n">
         <v>212.9205840662826</v>
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>212.9205840662826</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
@@ -29442,40 +29442,40 @@
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="G28" t="n">
         <v>168.6959906883239</v>
       </c>
       <c r="H28" t="n">
-        <v>165.7818614221724</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="I28" t="n">
-        <v>164.7090929584652</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="J28" t="n">
-        <v>123.9598399299163</v>
+        <v>187.052133448484</v>
       </c>
       <c r="K28" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346801</v>
       </c>
       <c r="L28" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360791</v>
       </c>
       <c r="M28" t="n">
-        <v>24.46691421597135</v>
+        <v>24.4669142159714</v>
       </c>
       <c r="N28" t="n">
-        <v>212.9205840662826</v>
+        <v>15.78803834926586</v>
       </c>
       <c r="O28" t="n">
-        <v>36.80265358589529</v>
+        <v>36.80265358589533</v>
       </c>
       <c r="P28" t="n">
-        <v>57.89996696047066</v>
+        <v>57.89996696047071</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.8163712014149</v>
+        <v>126.816371201415</v>
       </c>
       <c r="R28" t="n">
         <v>203.2148443806685</v>
@@ -29557,7 +29557,7 @@
         <v>212.9205840662826</v>
       </c>
       <c r="R29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="S29" t="n">
         <v>212.9205840662826</v>
@@ -29600,19 +29600,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>148.7388978542471</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.6804106468432</v>
       </c>
       <c r="I30" t="n">
         <v>107.1669324054735</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>51.9360199031985</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.14101078849129</v>
       </c>
       <c r="R30" t="n">
         <v>134.3654897447971</v>
@@ -29648,16 +29648,16 @@
         <v>212.9205840662826</v>
       </c>
       <c r="V30" t="n">
-        <v>212.9205840662826</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>212.9205840662826</v>
       </c>
       <c r="X30" t="n">
+        <v>4.444550939039431</v>
+      </c>
+      <c r="Y30" t="n">
         <v>212.9205840662826</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>134.1048473312174</v>
       </c>
     </row>
     <row r="31">
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>212.9205840662826</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
         <v>166.4571809719723</v>
@@ -29694,28 +29694,28 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K31" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346801</v>
       </c>
       <c r="L31" t="n">
-        <v>77.61093705700159</v>
+        <v>31.44053041360791</v>
       </c>
       <c r="M31" t="n">
-        <v>24.46691421597135</v>
+        <v>24.4669142159714</v>
       </c>
       <c r="N31" t="n">
-        <v>15.78803834926582</v>
+        <v>15.78803834926586</v>
       </c>
       <c r="O31" t="n">
-        <v>36.80265358589529</v>
+        <v>36.80265358589533</v>
       </c>
       <c r="P31" t="n">
+        <v>198.5847015605092</v>
+      </c>
+      <c r="Q31" t="n">
         <v>212.9205840662826</v>
       </c>
-      <c r="Q31" t="n">
-        <v>126.8163712014149</v>
-      </c>
       <c r="R31" t="n">
-        <v>203.2148443806685</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="S31" t="n">
         <v>212.9205840662826</v>
@@ -29828,16 +29828,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>148.7388978542471</v>
@@ -29849,7 +29849,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J33" t="n">
-        <v>51.93601990319846</v>
+        <v>51.9360199031985</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.141010788491243</v>
+        <v>6.14101078849129</v>
       </c>
       <c r="R33" t="n">
         <v>134.3654897447971</v>
@@ -29888,13 +29888,13 @@
         <v>212.9205840662826</v>
       </c>
       <c r="W33" t="n">
-        <v>97.12142124721768</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X33" t="n">
-        <v>212.9205840662826</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.9205840662826</v>
+        <v>122.1749778324848</v>
       </c>
     </row>
     <row r="34">
@@ -29931,25 +29931,25 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K34" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346801</v>
       </c>
       <c r="L34" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360791</v>
       </c>
       <c r="M34" t="n">
-        <v>24.46691421597135</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="N34" t="n">
-        <v>97.26210839397409</v>
+        <v>63.82905564947495</v>
       </c>
       <c r="O34" t="n">
-        <v>36.80265358589529</v>
+        <v>36.80265358589533</v>
       </c>
       <c r="P34" t="n">
-        <v>212.9205840662826</v>
+        <v>57.89996696047071</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.8163712014149</v>
+        <v>126.816371201415</v>
       </c>
       <c r="R34" t="n">
         <v>203.2148443806685</v>
@@ -30007,16 +30007,16 @@
         <v>248.3112107889442</v>
       </c>
       <c r="J35" t="n">
+        <v>134.2006577043156</v>
+      </c>
+      <c r="K35" t="n">
         <v>248.3112107889442</v>
       </c>
-      <c r="K35" t="n">
-        <v>5.370482769838588</v>
-      </c>
       <c r="L35" t="n">
-        <v>173.0178093095075</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>244.6649772971286</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30025,13 +30025,13 @@
         <v>248.3112107889442</v>
       </c>
       <c r="P35" t="n">
-        <v>13.55824001833905</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="Q35" t="n">
         <v>248.3112107889442</v>
       </c>
       <c r="R35" t="n">
-        <v>194.2115698873897</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="S35" t="n">
         <v>248.3112107889442</v>
@@ -30074,7 +30074,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7388978542471</v>
@@ -30083,7 +30083,7 @@
         <v>125.6804106468432</v>
       </c>
       <c r="I36" t="n">
-        <v>107.1669324054735</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30107,22 +30107,22 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.14101078849124</v>
+        <v>6.14101078849129</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.947921920714</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>67.11028384127962</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>201.9234331169324</v>
       </c>
       <c r="W36" t="n">
         <v>248.3112107889442</v>
@@ -30131,7 +30131,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>248.3112107889442</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
@@ -30168,25 +30168,25 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K37" t="n">
-        <v>66.47413857346797</v>
+        <v>66.47413857346801</v>
       </c>
       <c r="L37" t="n">
-        <v>31.44053041360786</v>
+        <v>31.44053041360791</v>
       </c>
       <c r="M37" t="n">
-        <v>24.46691421597134</v>
+        <v>24.4669142159714</v>
       </c>
       <c r="N37" t="n">
-        <v>15.78803834926581</v>
+        <v>15.78803834926586</v>
       </c>
       <c r="O37" t="n">
-        <v>50.12487353388219</v>
+        <v>120.8191636578583</v>
       </c>
       <c r="P37" t="n">
-        <v>57.89996696047066</v>
+        <v>57.89996696047071</v>
       </c>
       <c r="Q37" t="n">
-        <v>126.8163712014149</v>
+        <v>126.816371201415</v>
       </c>
       <c r="R37" t="n">
         <v>203.2148443806685</v>
@@ -30241,13 +30241,13 @@
         <v>248.3112107889442</v>
       </c>
       <c r="I38" t="n">
+        <v>240.5985821377676</v>
+      </c>
+      <c r="J38" t="n">
         <v>248.3112107889442</v>
       </c>
-      <c r="J38" t="n">
-        <v>128.8301749344762</v>
-      </c>
       <c r="K38" t="n">
-        <v>5.370482769838588</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30256,10 +30256,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>248.3112107889442</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>248.3112107889442</v>
+        <v>188.8425640798005</v>
       </c>
       <c r="P38" t="n">
         <v>248.3112107889442</v>
@@ -30271,10 +30271,10 @@
         <v>248.3112107889442</v>
       </c>
       <c r="S38" t="n">
-        <v>248.3112107889442</v>
+        <v>227.2739512919082</v>
       </c>
       <c r="T38" t="n">
-        <v>248.3112107889442</v>
+        <v>222.4191925616721</v>
       </c>
       <c r="U38" t="n">
         <v>248.3112107889442</v>
@@ -30308,22 +30308,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7388978542471</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>125.6804106468432</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>51.93601990319846</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,13 +30344,13 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.14101078849124</v>
+        <v>6.14101078849129</v>
       </c>
       <c r="R39" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S39" t="n">
-        <v>191.4847933493538</v>
+        <v>58.20798087690906</v>
       </c>
       <c r="T39" t="n">
         <v>214.947921920714</v>
@@ -30359,16 +30359,16 @@
         <v>237.2276940613373</v>
       </c>
       <c r="V39" t="n">
-        <v>49.88640877236486</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>248.3112107889442</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30384,10 +30384,10 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
-        <v>229.1991603226737</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>141.676141212225</v>
+        <v>225.692651284188</v>
       </c>
       <c r="F40" t="n">
         <v>138.9268822184467</v>
@@ -30405,25 +30405,25 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K40" t="n">
-        <v>66.47413857346797</v>
+        <v>66.47413857346801</v>
       </c>
       <c r="L40" t="n">
-        <v>31.44053041360786</v>
+        <v>31.44053041360791</v>
       </c>
       <c r="M40" t="n">
-        <v>24.46691421597134</v>
+        <v>24.4669142159714</v>
       </c>
       <c r="N40" t="n">
-        <v>15.78803834926581</v>
+        <v>15.78803834926586</v>
       </c>
       <c r="O40" t="n">
-        <v>36.80265358589529</v>
+        <v>36.80265358589533</v>
       </c>
       <c r="P40" t="n">
-        <v>57.89996696047066</v>
+        <v>57.89996696047071</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.8163712014149</v>
+        <v>126.816371201415</v>
       </c>
       <c r="R40" t="n">
         <v>203.2148443806685</v>
@@ -30478,31 +30478,31 @@
         <v>240.5985821377676</v>
       </c>
       <c r="I41" t="n">
-        <v>240.5985821377675</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="J41" t="n">
         <v>240.5985821377676</v>
       </c>
       <c r="K41" t="n">
-        <v>36.17557980110693</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="L41" t="n">
         <v>240.5985821377676</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>201.7724340278364</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>240.5985821377676</v>
       </c>
-      <c r="O41" t="n">
-        <v>240.5985821377676</v>
-      </c>
-      <c r="P41" t="n">
-        <v>13.55824001833905</v>
-      </c>
       <c r="Q41" t="n">
-        <v>240.5985821377676</v>
+        <v>88.55996792937725</v>
       </c>
       <c r="R41" t="n">
         <v>240.5985821377676</v>
@@ -30536,16 +30536,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>45.83112220640299</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
@@ -30554,13 +30554,13 @@
         <v>148.7388978542471</v>
       </c>
       <c r="H42" t="n">
-        <v>125.6804106468432</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>107.1669324054735</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>51.93601990319846</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,22 +30581,22 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.14101078849124</v>
+        <v>6.14101078849129</v>
       </c>
       <c r="R42" t="n">
-        <v>134.3654897447971</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.947921920714</v>
+        <v>94.71789027718484</v>
       </c>
       <c r="U42" t="n">
         <v>237.2276940613373</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="W42" t="n">
         <v>240.5985821377676</v>
@@ -30618,10 +30618,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
-        <v>166.4571809719723</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="D43" t="n">
-        <v>145.1826502507107</v>
+        <v>175.3982247716481</v>
       </c>
       <c r="E43" t="n">
         <v>141.676141212225</v>
@@ -30639,28 +30639,28 @@
         <v>164.7090929584652</v>
       </c>
       <c r="J43" t="n">
-        <v>224.25833758446</v>
+        <v>119.9013618977274</v>
       </c>
       <c r="K43" t="n">
-        <v>66.47413857346797</v>
+        <v>66.47413857346801</v>
       </c>
       <c r="L43" t="n">
-        <v>31.44053041360786</v>
+        <v>31.44053041360791</v>
       </c>
       <c r="M43" t="n">
-        <v>24.46691421597134</v>
+        <v>24.4669142159714</v>
       </c>
       <c r="N43" t="n">
-        <v>15.78803834926581</v>
+        <v>15.78803834926586</v>
       </c>
       <c r="O43" t="n">
-        <v>36.80265358589529</v>
+        <v>36.80265358589533</v>
       </c>
       <c r="P43" t="n">
-        <v>57.89996696047066</v>
+        <v>57.89996696047071</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.8163712014149</v>
+        <v>126.816371201415</v>
       </c>
       <c r="R43" t="n">
         <v>203.2148443806685</v>
@@ -30721,34 +30721,34 @@
         <v>240.5985821377676</v>
       </c>
       <c r="K44" t="n">
-        <v>5.370482769838667</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="L44" t="n">
-        <v>2.190381370608549</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="M44" t="n">
         <v>240.5985821377676</v>
       </c>
       <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>67.91320939554245</v>
+      </c>
+      <c r="Q44" t="n">
         <v>240.5985821377676</v>
       </c>
-      <c r="O44" t="n">
+      <c r="R44" t="n">
         <v>240.5985821377676</v>
-      </c>
-      <c r="P44" t="n">
-        <v>240.5985821377676</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>88.55996792937725</v>
-      </c>
-      <c r="R44" t="n">
-        <v>194.2115698873897</v>
       </c>
       <c r="S44" t="n">
         <v>240.5985821377676</v>
       </c>
       <c r="T44" t="n">
-        <v>240.5985821377676</v>
+        <v>222.4191925616721</v>
       </c>
       <c r="U44" t="n">
         <v>240.5985821377676</v>
@@ -30785,7 +30785,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>123.0989520653083</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>148.7388978542471</v>
@@ -30797,7 +30797,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J45" t="n">
-        <v>51.93601990319849</v>
+        <v>51.9360199031985</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,22 +30818,22 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.141010788491283</v>
+        <v>6.14101078849129</v>
       </c>
       <c r="R45" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>214.947921920714</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V45" t="n">
-        <v>240.5985821377676</v>
+        <v>159.1311943711641</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30861,7 +30861,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>171.2163961833624</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -30870,22 +30870,22 @@
         <v>168.6959906883239</v>
       </c>
       <c r="H46" t="n">
-        <v>240.5985821377676</v>
+        <v>165.7818614221724</v>
       </c>
       <c r="I46" t="n">
         <v>164.7090929584652</v>
       </c>
       <c r="J46" t="n">
-        <v>119.9013618977274</v>
+        <v>224.2583375844601</v>
       </c>
       <c r="K46" t="n">
         <v>66.47413857346801</v>
       </c>
       <c r="L46" t="n">
-        <v>31.4405304136079</v>
+        <v>31.44053041360791</v>
       </c>
       <c r="M46" t="n">
-        <v>24.46691421597139</v>
+        <v>24.4669142159714</v>
       </c>
       <c r="N46" t="n">
         <v>15.78803834926586</v>
@@ -30894,7 +30894,7 @@
         <v>36.80265358589533</v>
       </c>
       <c r="P46" t="n">
-        <v>57.89996696047069</v>
+        <v>57.89996696047071</v>
       </c>
       <c r="Q46" t="n">
         <v>126.816371201415</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4173847717455098</v>
+        <v>0.4173847717455088</v>
       </c>
       <c r="H11" t="n">
-        <v>4.274541793638703</v>
+        <v>4.274541793638694</v>
       </c>
       <c r="I11" t="n">
-        <v>16.09122641271878</v>
+        <v>16.09122641271874</v>
       </c>
       <c r="J11" t="n">
-        <v>35.42501077093549</v>
+        <v>35.42501077093542</v>
       </c>
       <c r="K11" t="n">
-        <v>53.09290815892293</v>
+        <v>53.09290815892281</v>
       </c>
       <c r="L11" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722944</v>
       </c>
       <c r="M11" t="n">
-        <v>73.2891138017588</v>
+        <v>73.28911380175863</v>
       </c>
       <c r="N11" t="n">
-        <v>74.47500828448074</v>
+        <v>74.47500828448057</v>
       </c>
       <c r="O11" t="n">
-        <v>70.32463846043632</v>
+        <v>70.32463846043615</v>
       </c>
       <c r="P11" t="n">
-        <v>60.02045190796904</v>
+        <v>60.0204519079689</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.07285976983295</v>
+        <v>45.07285976983285</v>
       </c>
       <c r="R11" t="n">
-        <v>26.2185461681589</v>
+        <v>26.21854616815884</v>
       </c>
       <c r="S11" t="n">
-        <v>9.511155486150814</v>
+        <v>9.511155486150791</v>
       </c>
       <c r="T11" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315966</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.0333907817396407</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.2233205408447788</v>
       </c>
       <c r="H12" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053522</v>
       </c>
       <c r="I12" t="n">
-        <v>7.688887042243499</v>
+        <v>7.688887042243481</v>
       </c>
       <c r="J12" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954991</v>
       </c>
       <c r="K12" t="n">
-        <v>36.06136996615017</v>
+        <v>36.0613699661501</v>
       </c>
       <c r="L12" t="n">
-        <v>48.48896216895088</v>
+        <v>48.48896216895077</v>
       </c>
       <c r="M12" t="n">
-        <v>56.58433177457412</v>
+        <v>56.58433177457398</v>
       </c>
       <c r="N12" t="n">
-        <v>58.08195066471302</v>
+        <v>58.08195066471288</v>
       </c>
       <c r="O12" t="n">
-        <v>53.13363762809975</v>
+        <v>53.13363762809963</v>
       </c>
       <c r="P12" t="n">
-        <v>42.64442854078948</v>
+        <v>42.64442854078938</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362475</v>
       </c>
       <c r="R12" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350302</v>
       </c>
       <c r="S12" t="n">
-        <v>4.14808109858614</v>
+        <v>4.14808109858613</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9001384957734742</v>
+        <v>0.900138495773472</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01469214084505128</v>
+        <v>0.01469214084505124</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.18722443962109</v>
       </c>
       <c r="H13" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267511</v>
       </c>
       <c r="I13" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514237</v>
       </c>
       <c r="J13" t="n">
-        <v>13.2367678812111</v>
+        <v>13.23676788121107</v>
       </c>
       <c r="K13" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325027</v>
       </c>
       <c r="L13" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057552</v>
       </c>
       <c r="M13" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078596</v>
       </c>
       <c r="N13" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310737</v>
       </c>
       <c r="O13" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026099</v>
       </c>
       <c r="P13" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199074</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.67749375772604</v>
+        <v>15.677493757726</v>
       </c>
       <c r="R13" t="n">
-        <v>8.418291621508303</v>
+        <v>8.418291621508283</v>
       </c>
       <c r="S13" t="n">
-        <v>3.262811370487548</v>
+        <v>3.262811370487541</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7999589692901137</v>
+        <v>0.7999589692901118</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115038</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4173847717455098</v>
+        <v>0.4173847717455091</v>
       </c>
       <c r="H14" t="n">
-        <v>4.274541793638703</v>
+        <v>4.274541793638696</v>
       </c>
       <c r="I14" t="n">
-        <v>16.09122641271878</v>
+        <v>16.09122641271875</v>
       </c>
       <c r="J14" t="n">
-        <v>35.42501077093549</v>
+        <v>35.42501077093544</v>
       </c>
       <c r="K14" t="n">
-        <v>53.09290815892293</v>
+        <v>53.09290815892285</v>
       </c>
       <c r="L14" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722948</v>
       </c>
       <c r="M14" t="n">
-        <v>73.2891138017588</v>
+        <v>73.28911380175867</v>
       </c>
       <c r="N14" t="n">
-        <v>74.47500828448074</v>
+        <v>74.47500828448061</v>
       </c>
       <c r="O14" t="n">
-        <v>70.32463846043632</v>
+        <v>70.3246384604362</v>
       </c>
       <c r="P14" t="n">
-        <v>60.02045190796904</v>
+        <v>60.02045190796894</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.07285976983295</v>
+        <v>45.07285976983288</v>
       </c>
       <c r="R14" t="n">
-        <v>26.2185461681589</v>
+        <v>26.21854616815886</v>
       </c>
       <c r="S14" t="n">
-        <v>9.511155486150814</v>
+        <v>9.511155486150798</v>
       </c>
       <c r="T14" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315967</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964072</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.223320540844779</v>
       </c>
       <c r="H15" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053523</v>
       </c>
       <c r="I15" t="n">
-        <v>7.688887042243499</v>
+        <v>7.688887042243486</v>
       </c>
       <c r="J15" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954993</v>
       </c>
       <c r="K15" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615012</v>
       </c>
       <c r="L15" t="n">
-        <v>48.48896216895088</v>
+        <v>48.4889621689508</v>
       </c>
       <c r="M15" t="n">
-        <v>56.58433177457412</v>
+        <v>56.58433177457403</v>
       </c>
       <c r="N15" t="n">
-        <v>58.08195066471302</v>
+        <v>58.08195066471293</v>
       </c>
       <c r="O15" t="n">
-        <v>53.13363762809975</v>
+        <v>53.13363762809966</v>
       </c>
       <c r="P15" t="n">
-        <v>42.64442854078948</v>
+        <v>42.64442854078941</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362477</v>
       </c>
       <c r="R15" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350303</v>
       </c>
       <c r="S15" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586132</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9001384957734742</v>
+        <v>0.9001384957734727</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01469214084505128</v>
+        <v>0.01469214084505125</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210902</v>
       </c>
       <c r="H16" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267512</v>
       </c>
       <c r="I16" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514241</v>
       </c>
       <c r="J16" t="n">
-        <v>13.2367678812111</v>
+        <v>13.23676788121107</v>
       </c>
       <c r="K16" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325029</v>
       </c>
       <c r="L16" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057554</v>
       </c>
       <c r="M16" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078598</v>
       </c>
       <c r="N16" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310739</v>
       </c>
       <c r="O16" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026101</v>
       </c>
       <c r="P16" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199075</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772602</v>
       </c>
       <c r="R16" t="n">
-        <v>8.418291621508303</v>
+        <v>8.418291621508288</v>
       </c>
       <c r="S16" t="n">
-        <v>3.262811370487548</v>
+        <v>3.262811370487543</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7999589692901137</v>
+        <v>0.7999589692901123</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115038</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4173847717455098</v>
+        <v>0.4173847717455091</v>
       </c>
       <c r="H17" t="n">
-        <v>4.274541793638703</v>
+        <v>4.274541793638696</v>
       </c>
       <c r="I17" t="n">
-        <v>16.09122641271878</v>
+        <v>16.09122641271875</v>
       </c>
       <c r="J17" t="n">
-        <v>35.42501077093549</v>
+        <v>35.42501077093544</v>
       </c>
       <c r="K17" t="n">
-        <v>53.09290815892293</v>
+        <v>53.09290815892285</v>
       </c>
       <c r="L17" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722948</v>
       </c>
       <c r="M17" t="n">
-        <v>73.2891138017588</v>
+        <v>73.28911380175867</v>
       </c>
       <c r="N17" t="n">
-        <v>74.47500828448074</v>
+        <v>74.47500828448061</v>
       </c>
       <c r="O17" t="n">
-        <v>70.32463846043632</v>
+        <v>70.3246384604362</v>
       </c>
       <c r="P17" t="n">
-        <v>60.02045190796904</v>
+        <v>60.02045190796894</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.07285976983295</v>
+        <v>45.07285976983288</v>
       </c>
       <c r="R17" t="n">
-        <v>26.2185461681589</v>
+        <v>26.21854616815886</v>
       </c>
       <c r="S17" t="n">
-        <v>9.511155486150814</v>
+        <v>9.511155486150798</v>
       </c>
       <c r="T17" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315967</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964072</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.223320540844779</v>
       </c>
       <c r="H18" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053523</v>
       </c>
       <c r="I18" t="n">
-        <v>7.688887042243499</v>
+        <v>7.688887042243486</v>
       </c>
       <c r="J18" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954993</v>
       </c>
       <c r="K18" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615012</v>
       </c>
       <c r="L18" t="n">
-        <v>48.48896216895088</v>
+        <v>48.4889621689508</v>
       </c>
       <c r="M18" t="n">
-        <v>56.58433177457412</v>
+        <v>56.58433177457403</v>
       </c>
       <c r="N18" t="n">
-        <v>58.08195066471302</v>
+        <v>58.08195066471293</v>
       </c>
       <c r="O18" t="n">
-        <v>53.13363762809975</v>
+        <v>53.13363762809966</v>
       </c>
       <c r="P18" t="n">
-        <v>42.64442854078948</v>
+        <v>42.64442854078941</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362477</v>
       </c>
       <c r="R18" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350303</v>
       </c>
       <c r="S18" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586132</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9001384957734742</v>
+        <v>0.9001384957734727</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01469214084505128</v>
+        <v>0.01469214084505125</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210902</v>
       </c>
       <c r="H19" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267512</v>
       </c>
       <c r="I19" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514241</v>
       </c>
       <c r="J19" t="n">
-        <v>13.2367678812111</v>
+        <v>13.23676788121107</v>
       </c>
       <c r="K19" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325029</v>
       </c>
       <c r="L19" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057554</v>
       </c>
       <c r="M19" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078598</v>
       </c>
       <c r="N19" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310739</v>
       </c>
       <c r="O19" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026101</v>
       </c>
       <c r="P19" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199075</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772602</v>
       </c>
       <c r="R19" t="n">
-        <v>8.418291621508303</v>
+        <v>8.418291621508288</v>
       </c>
       <c r="S19" t="n">
-        <v>3.262811370487548</v>
+        <v>3.262811370487543</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7999589692901137</v>
+        <v>0.7999589692901123</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115038</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4173847717455098</v>
+        <v>0.4173847717455091</v>
       </c>
       <c r="H20" t="n">
-        <v>4.274541793638703</v>
+        <v>4.274541793638696</v>
       </c>
       <c r="I20" t="n">
-        <v>16.09122641271878</v>
+        <v>16.09122641271875</v>
       </c>
       <c r="J20" t="n">
-        <v>35.42501077093549</v>
+        <v>35.42501077093544</v>
       </c>
       <c r="K20" t="n">
-        <v>53.09290815892293</v>
+        <v>53.09290815892285</v>
       </c>
       <c r="L20" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722948</v>
       </c>
       <c r="M20" t="n">
-        <v>73.2891138017588</v>
+        <v>73.28911380175867</v>
       </c>
       <c r="N20" t="n">
-        <v>74.47500828448074</v>
+        <v>74.47500828448061</v>
       </c>
       <c r="O20" t="n">
-        <v>70.32463846043632</v>
+        <v>70.3246384604362</v>
       </c>
       <c r="P20" t="n">
-        <v>60.02045190796904</v>
+        <v>60.02045190796894</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.07285976983295</v>
+        <v>45.07285976983288</v>
       </c>
       <c r="R20" t="n">
-        <v>26.2185461681589</v>
+        <v>26.21854616815886</v>
       </c>
       <c r="S20" t="n">
-        <v>9.511155486150814</v>
+        <v>9.511155486150798</v>
       </c>
       <c r="T20" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315967</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964072</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.223320540844779</v>
       </c>
       <c r="H21" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053523</v>
       </c>
       <c r="I21" t="n">
-        <v>7.688887042243499</v>
+        <v>7.688887042243486</v>
       </c>
       <c r="J21" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954993</v>
       </c>
       <c r="K21" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615012</v>
       </c>
       <c r="L21" t="n">
-        <v>48.48896216895088</v>
+        <v>48.4889621689508</v>
       </c>
       <c r="M21" t="n">
-        <v>56.58433177457412</v>
+        <v>56.58433177457403</v>
       </c>
       <c r="N21" t="n">
-        <v>58.08195066471302</v>
+        <v>58.08195066471293</v>
       </c>
       <c r="O21" t="n">
-        <v>53.13363762809975</v>
+        <v>53.13363762809966</v>
       </c>
       <c r="P21" t="n">
-        <v>42.64442854078948</v>
+        <v>42.64442854078941</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362477</v>
       </c>
       <c r="R21" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350303</v>
       </c>
       <c r="S21" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586132</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9001384957734742</v>
+        <v>0.9001384957734727</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01469214084505128</v>
+        <v>0.01469214084505125</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210902</v>
       </c>
       <c r="H22" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267512</v>
       </c>
       <c r="I22" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514241</v>
       </c>
       <c r="J22" t="n">
-        <v>13.2367678812111</v>
+        <v>13.23676788121107</v>
       </c>
       <c r="K22" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325029</v>
       </c>
       <c r="L22" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057554</v>
       </c>
       <c r="M22" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078598</v>
       </c>
       <c r="N22" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310739</v>
       </c>
       <c r="O22" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026101</v>
       </c>
       <c r="P22" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199075</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772602</v>
       </c>
       <c r="R22" t="n">
-        <v>8.418291621508303</v>
+        <v>8.418291621508288</v>
       </c>
       <c r="S22" t="n">
-        <v>3.262811370487548</v>
+        <v>3.262811370487543</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7999589692901137</v>
+        <v>0.7999589692901123</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115038</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4173847717455098</v>
+        <v>0.4173847717455091</v>
       </c>
       <c r="H23" t="n">
-        <v>4.274541793638703</v>
+        <v>4.274541793638696</v>
       </c>
       <c r="I23" t="n">
-        <v>16.09122641271878</v>
+        <v>16.09122641271875</v>
       </c>
       <c r="J23" t="n">
-        <v>35.42501077093549</v>
+        <v>35.42501077093544</v>
       </c>
       <c r="K23" t="n">
-        <v>53.09290815892293</v>
+        <v>53.09290815892285</v>
       </c>
       <c r="L23" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722948</v>
       </c>
       <c r="M23" t="n">
-        <v>73.2891138017588</v>
+        <v>73.28911380175867</v>
       </c>
       <c r="N23" t="n">
-        <v>74.47500828448074</v>
+        <v>74.47500828448061</v>
       </c>
       <c r="O23" t="n">
-        <v>70.32463846043632</v>
+        <v>70.3246384604362</v>
       </c>
       <c r="P23" t="n">
-        <v>60.02045190796904</v>
+        <v>60.02045190796894</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.07285976983295</v>
+        <v>45.07285976983288</v>
       </c>
       <c r="R23" t="n">
-        <v>26.2185461681589</v>
+        <v>26.21854616815886</v>
       </c>
       <c r="S23" t="n">
-        <v>9.511155486150814</v>
+        <v>9.511155486150798</v>
       </c>
       <c r="T23" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315967</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964072</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.223320540844779</v>
       </c>
       <c r="H24" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053523</v>
       </c>
       <c r="I24" t="n">
-        <v>7.688887042243499</v>
+        <v>7.688887042243486</v>
       </c>
       <c r="J24" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954993</v>
       </c>
       <c r="K24" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615012</v>
       </c>
       <c r="L24" t="n">
-        <v>48.48896216895088</v>
+        <v>48.4889621689508</v>
       </c>
       <c r="M24" t="n">
-        <v>56.58433177457412</v>
+        <v>56.58433177457403</v>
       </c>
       <c r="N24" t="n">
-        <v>58.08195066471302</v>
+        <v>58.08195066471293</v>
       </c>
       <c r="O24" t="n">
-        <v>53.13363762809975</v>
+        <v>53.13363762809966</v>
       </c>
       <c r="P24" t="n">
-        <v>42.64442854078948</v>
+        <v>42.64442854078941</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362477</v>
       </c>
       <c r="R24" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350303</v>
       </c>
       <c r="S24" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586132</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9001384957734742</v>
+        <v>0.9001384957734727</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01469214084505128</v>
+        <v>0.01469214084505125</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210902</v>
       </c>
       <c r="H25" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267512</v>
       </c>
       <c r="I25" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514241</v>
       </c>
       <c r="J25" t="n">
-        <v>13.2367678812111</v>
+        <v>13.23676788121107</v>
       </c>
       <c r="K25" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325029</v>
       </c>
       <c r="L25" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057554</v>
       </c>
       <c r="M25" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078598</v>
       </c>
       <c r="N25" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310739</v>
       </c>
       <c r="O25" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026101</v>
       </c>
       <c r="P25" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199075</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772602</v>
       </c>
       <c r="R25" t="n">
-        <v>8.418291621508303</v>
+        <v>8.418291621508288</v>
       </c>
       <c r="S25" t="n">
-        <v>3.262811370487548</v>
+        <v>3.262811370487543</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7999589692901137</v>
+        <v>0.7999589692901123</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115038</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4173847717455098</v>
+        <v>0.4173847717455091</v>
       </c>
       <c r="H26" t="n">
-        <v>4.274541793638703</v>
+        <v>4.274541793638696</v>
       </c>
       <c r="I26" t="n">
-        <v>16.09122641271878</v>
+        <v>16.09122641271875</v>
       </c>
       <c r="J26" t="n">
-        <v>35.42501077093549</v>
+        <v>35.42501077093544</v>
       </c>
       <c r="K26" t="n">
-        <v>53.09290815892293</v>
+        <v>53.09290815892285</v>
       </c>
       <c r="L26" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722948</v>
       </c>
       <c r="M26" t="n">
-        <v>73.2891138017588</v>
+        <v>73.28911380175867</v>
       </c>
       <c r="N26" t="n">
-        <v>74.47500828448074</v>
+        <v>74.47500828448061</v>
       </c>
       <c r="O26" t="n">
-        <v>70.32463846043632</v>
+        <v>70.3246384604362</v>
       </c>
       <c r="P26" t="n">
-        <v>60.02045190796904</v>
+        <v>60.02045190796894</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.07285976983295</v>
+        <v>45.07285976983288</v>
       </c>
       <c r="R26" t="n">
-        <v>26.2185461681589</v>
+        <v>26.21854616815886</v>
       </c>
       <c r="S26" t="n">
-        <v>9.511155486150814</v>
+        <v>9.511155486150798</v>
       </c>
       <c r="T26" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315967</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964072</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.223320540844779</v>
       </c>
       <c r="H27" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053523</v>
       </c>
       <c r="I27" t="n">
-        <v>7.688887042243499</v>
+        <v>7.688887042243486</v>
       </c>
       <c r="J27" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954993</v>
       </c>
       <c r="K27" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615012</v>
       </c>
       <c r="L27" t="n">
-        <v>48.48896216895088</v>
+        <v>48.4889621689508</v>
       </c>
       <c r="M27" t="n">
-        <v>56.58433177457412</v>
+        <v>56.58433177457403</v>
       </c>
       <c r="N27" t="n">
-        <v>58.08195066471302</v>
+        <v>58.08195066471293</v>
       </c>
       <c r="O27" t="n">
-        <v>53.13363762809975</v>
+        <v>53.13363762809966</v>
       </c>
       <c r="P27" t="n">
-        <v>42.64442854078948</v>
+        <v>42.64442854078941</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362477</v>
       </c>
       <c r="R27" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350303</v>
       </c>
       <c r="S27" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586132</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9001384957734742</v>
+        <v>0.9001384957734727</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01469214084505128</v>
+        <v>0.01469214084505125</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210902</v>
       </c>
       <c r="H28" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267512</v>
       </c>
       <c r="I28" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514241</v>
       </c>
       <c r="J28" t="n">
-        <v>13.2367678812111</v>
+        <v>13.23676788121107</v>
       </c>
       <c r="K28" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325029</v>
       </c>
       <c r="L28" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057554</v>
       </c>
       <c r="M28" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078598</v>
       </c>
       <c r="N28" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310739</v>
       </c>
       <c r="O28" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026101</v>
       </c>
       <c r="P28" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199075</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772602</v>
       </c>
       <c r="R28" t="n">
-        <v>8.418291621508303</v>
+        <v>8.418291621508288</v>
       </c>
       <c r="S28" t="n">
-        <v>3.262811370487548</v>
+        <v>3.262811370487543</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7999589692901137</v>
+        <v>0.7999589692901123</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115038</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4173847717455098</v>
+        <v>0.4173847717455091</v>
       </c>
       <c r="H29" t="n">
-        <v>4.274541793638703</v>
+        <v>4.274541793638696</v>
       </c>
       <c r="I29" t="n">
-        <v>16.09122641271878</v>
+        <v>16.09122641271875</v>
       </c>
       <c r="J29" t="n">
-        <v>35.42501077093549</v>
+        <v>35.42501077093544</v>
       </c>
       <c r="K29" t="n">
-        <v>53.09290815892293</v>
+        <v>53.09290815892285</v>
       </c>
       <c r="L29" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722948</v>
       </c>
       <c r="M29" t="n">
-        <v>73.2891138017588</v>
+        <v>73.28911380175867</v>
       </c>
       <c r="N29" t="n">
-        <v>74.47500828448074</v>
+        <v>74.47500828448061</v>
       </c>
       <c r="O29" t="n">
-        <v>70.32463846043632</v>
+        <v>70.3246384604362</v>
       </c>
       <c r="P29" t="n">
-        <v>60.02045190796904</v>
+        <v>60.02045190796894</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.07285976983295</v>
+        <v>45.07285976983288</v>
       </c>
       <c r="R29" t="n">
-        <v>26.2185461681589</v>
+        <v>26.21854616815886</v>
       </c>
       <c r="S29" t="n">
-        <v>9.511155486150814</v>
+        <v>9.511155486150798</v>
       </c>
       <c r="T29" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315967</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964072</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.223320540844779</v>
       </c>
       <c r="H30" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053523</v>
       </c>
       <c r="I30" t="n">
-        <v>7.688887042243499</v>
+        <v>7.688887042243486</v>
       </c>
       <c r="J30" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954993</v>
       </c>
       <c r="K30" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615012</v>
       </c>
       <c r="L30" t="n">
-        <v>48.48896216895088</v>
+        <v>48.4889621689508</v>
       </c>
       <c r="M30" t="n">
-        <v>56.58433177457412</v>
+        <v>56.58433177457403</v>
       </c>
       <c r="N30" t="n">
-        <v>58.08195066471302</v>
+        <v>58.08195066471293</v>
       </c>
       <c r="O30" t="n">
-        <v>53.13363762809975</v>
+        <v>53.13363762809966</v>
       </c>
       <c r="P30" t="n">
-        <v>42.64442854078948</v>
+        <v>42.64442854078941</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362477</v>
       </c>
       <c r="R30" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350303</v>
       </c>
       <c r="S30" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586132</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9001384957734742</v>
+        <v>0.9001384957734727</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01469214084505128</v>
+        <v>0.01469214084505125</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210902</v>
       </c>
       <c r="H31" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267512</v>
       </c>
       <c r="I31" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514241</v>
       </c>
       <c r="J31" t="n">
-        <v>13.2367678812111</v>
+        <v>13.23676788121107</v>
       </c>
       <c r="K31" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325029</v>
       </c>
       <c r="L31" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057554</v>
       </c>
       <c r="M31" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078598</v>
       </c>
       <c r="N31" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310739</v>
       </c>
       <c r="O31" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026101</v>
       </c>
       <c r="P31" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199075</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772602</v>
       </c>
       <c r="R31" t="n">
-        <v>8.418291621508303</v>
+        <v>8.418291621508288</v>
       </c>
       <c r="S31" t="n">
-        <v>3.262811370487548</v>
+        <v>3.262811370487543</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7999589692901137</v>
+        <v>0.7999589692901123</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115038</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4173847717455098</v>
+        <v>0.4173847717455091</v>
       </c>
       <c r="H32" t="n">
-        <v>4.274541793638703</v>
+        <v>4.274541793638696</v>
       </c>
       <c r="I32" t="n">
-        <v>16.09122641271878</v>
+        <v>16.09122641271875</v>
       </c>
       <c r="J32" t="n">
-        <v>35.42501077093549</v>
+        <v>35.42501077093544</v>
       </c>
       <c r="K32" t="n">
-        <v>53.09290815892293</v>
+        <v>53.09290815892285</v>
       </c>
       <c r="L32" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722948</v>
       </c>
       <c r="M32" t="n">
-        <v>73.2891138017588</v>
+        <v>73.28911380175867</v>
       </c>
       <c r="N32" t="n">
-        <v>74.47500828448074</v>
+        <v>74.47500828448061</v>
       </c>
       <c r="O32" t="n">
-        <v>70.32463846043632</v>
+        <v>70.3246384604362</v>
       </c>
       <c r="P32" t="n">
-        <v>60.02045190796904</v>
+        <v>60.02045190796894</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.07285976983295</v>
+        <v>45.07285976983288</v>
       </c>
       <c r="R32" t="n">
-        <v>26.2185461681589</v>
+        <v>26.21854616815886</v>
       </c>
       <c r="S32" t="n">
-        <v>9.511155486150814</v>
+        <v>9.511155486150798</v>
       </c>
       <c r="T32" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315967</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964072</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.223320540844779</v>
       </c>
       <c r="H33" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053523</v>
       </c>
       <c r="I33" t="n">
-        <v>7.688887042243499</v>
+        <v>7.688887042243486</v>
       </c>
       <c r="J33" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954993</v>
       </c>
       <c r="K33" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615012</v>
       </c>
       <c r="L33" t="n">
-        <v>48.48896216895088</v>
+        <v>48.4889621689508</v>
       </c>
       <c r="M33" t="n">
-        <v>56.58433177457412</v>
+        <v>56.58433177457403</v>
       </c>
       <c r="N33" t="n">
-        <v>58.08195066471302</v>
+        <v>58.08195066471293</v>
       </c>
       <c r="O33" t="n">
-        <v>53.13363762809975</v>
+        <v>53.13363762809966</v>
       </c>
       <c r="P33" t="n">
-        <v>42.64442854078948</v>
+        <v>42.64442854078941</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362477</v>
       </c>
       <c r="R33" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350303</v>
       </c>
       <c r="S33" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586132</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9001384957734742</v>
+        <v>0.9001384957734727</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01469214084505128</v>
+        <v>0.01469214084505125</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210902</v>
       </c>
       <c r="H34" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267512</v>
       </c>
       <c r="I34" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514241</v>
       </c>
       <c r="J34" t="n">
-        <v>13.2367678812111</v>
+        <v>13.23676788121107</v>
       </c>
       <c r="K34" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325029</v>
       </c>
       <c r="L34" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057554</v>
       </c>
       <c r="M34" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078598</v>
       </c>
       <c r="N34" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310739</v>
       </c>
       <c r="O34" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026101</v>
       </c>
       <c r="P34" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199075</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772602</v>
       </c>
       <c r="R34" t="n">
-        <v>8.418291621508303</v>
+        <v>8.418291621508288</v>
       </c>
       <c r="S34" t="n">
-        <v>3.262811370487548</v>
+        <v>3.262811370487543</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7999589692901137</v>
+        <v>0.7999589692901123</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115038</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4173847717455099</v>
+        <v>0.4173847717455091</v>
       </c>
       <c r="H35" t="n">
-        <v>4.274541793638704</v>
+        <v>4.274541793638696</v>
       </c>
       <c r="I35" t="n">
-        <v>16.09122641271878</v>
+        <v>16.09122641271875</v>
       </c>
       <c r="J35" t="n">
-        <v>35.4250107709355</v>
+        <v>35.42501077093544</v>
       </c>
       <c r="K35" t="n">
-        <v>53.09290815892294</v>
+        <v>53.09290815892285</v>
       </c>
       <c r="L35" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722948</v>
       </c>
       <c r="M35" t="n">
-        <v>73.28911380175882</v>
+        <v>73.28911380175867</v>
       </c>
       <c r="N35" t="n">
-        <v>74.47500828448075</v>
+        <v>74.47500828448061</v>
       </c>
       <c r="O35" t="n">
-        <v>70.32463846043633</v>
+        <v>70.3246384604362</v>
       </c>
       <c r="P35" t="n">
-        <v>60.02045190796905</v>
+        <v>60.02045190796894</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.07285976983296</v>
+        <v>45.07285976983288</v>
       </c>
       <c r="R35" t="n">
-        <v>26.21854616815891</v>
+        <v>26.21854616815886</v>
       </c>
       <c r="S35" t="n">
-        <v>9.511155486150816</v>
+        <v>9.511155486150798</v>
       </c>
       <c r="T35" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315967</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964072</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.223320540844779</v>
       </c>
       <c r="H36" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053523</v>
       </c>
       <c r="I36" t="n">
-        <v>7.688887042243501</v>
+        <v>7.688887042243486</v>
       </c>
       <c r="J36" t="n">
-        <v>21.09889372954997</v>
+        <v>21.09889372954993</v>
       </c>
       <c r="K36" t="n">
-        <v>36.06136996615018</v>
+        <v>36.06136996615012</v>
       </c>
       <c r="L36" t="n">
-        <v>48.48896216895088</v>
+        <v>48.4889621689508</v>
       </c>
       <c r="M36" t="n">
-        <v>56.58433177457412</v>
+        <v>56.58433177457403</v>
       </c>
       <c r="N36" t="n">
-        <v>58.08195066471303</v>
+        <v>58.08195066471293</v>
       </c>
       <c r="O36" t="n">
-        <v>53.13363762809976</v>
+        <v>53.13363762809966</v>
       </c>
       <c r="P36" t="n">
-        <v>42.64442854078949</v>
+        <v>42.64442854078941</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.50667114362482</v>
+        <v>28.50667114362477</v>
       </c>
       <c r="R36" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350303</v>
       </c>
       <c r="S36" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586132</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9001384957734743</v>
+        <v>0.9001384957734727</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01469214084505128</v>
+        <v>0.01469214084505125</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210902</v>
       </c>
       <c r="H37" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267512</v>
       </c>
       <c r="I37" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514241</v>
       </c>
       <c r="J37" t="n">
-        <v>13.2367678812111</v>
+        <v>13.23676788121107</v>
       </c>
       <c r="K37" t="n">
-        <v>21.75207580325033</v>
+        <v>21.75207580325029</v>
       </c>
       <c r="L37" t="n">
-        <v>27.83516805057559</v>
+        <v>27.83516805057554</v>
       </c>
       <c r="M37" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078598</v>
       </c>
       <c r="N37" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310739</v>
       </c>
       <c r="O37" t="n">
-        <v>26.46332352026106</v>
+        <v>26.46332352026101</v>
       </c>
       <c r="P37" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199075</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772602</v>
       </c>
       <c r="R37" t="n">
-        <v>8.418291621508304</v>
+        <v>8.418291621508288</v>
       </c>
       <c r="S37" t="n">
-        <v>3.262811370487549</v>
+        <v>3.262811370487543</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7999589692901138</v>
+        <v>0.7999589692901123</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115038</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4173847717455099</v>
+        <v>0.4173847717455091</v>
       </c>
       <c r="H38" t="n">
-        <v>4.274541793638704</v>
+        <v>4.274541793638696</v>
       </c>
       <c r="I38" t="n">
-        <v>16.09122641271878</v>
+        <v>16.09122641271875</v>
       </c>
       <c r="J38" t="n">
-        <v>35.4250107709355</v>
+        <v>35.42501077093544</v>
       </c>
       <c r="K38" t="n">
-        <v>53.09290815892294</v>
+        <v>53.09290815892285</v>
       </c>
       <c r="L38" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722948</v>
       </c>
       <c r="M38" t="n">
-        <v>73.28911380175882</v>
+        <v>73.28911380175867</v>
       </c>
       <c r="N38" t="n">
-        <v>74.47500828448075</v>
+        <v>74.47500828448061</v>
       </c>
       <c r="O38" t="n">
-        <v>70.32463846043633</v>
+        <v>70.3246384604362</v>
       </c>
       <c r="P38" t="n">
-        <v>60.02045190796905</v>
+        <v>60.02045190796894</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.07285976983296</v>
+        <v>45.07285976983288</v>
       </c>
       <c r="R38" t="n">
-        <v>26.21854616815891</v>
+        <v>26.21854616815886</v>
       </c>
       <c r="S38" t="n">
-        <v>9.511155486150816</v>
+        <v>9.511155486150798</v>
       </c>
       <c r="T38" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315967</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964072</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.223320540844779</v>
       </c>
       <c r="H39" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053523</v>
       </c>
       <c r="I39" t="n">
-        <v>7.688887042243501</v>
+        <v>7.688887042243486</v>
       </c>
       <c r="J39" t="n">
-        <v>21.09889372954997</v>
+        <v>21.09889372954993</v>
       </c>
       <c r="K39" t="n">
-        <v>36.06136996615018</v>
+        <v>36.06136996615012</v>
       </c>
       <c r="L39" t="n">
-        <v>48.48896216895088</v>
+        <v>48.4889621689508</v>
       </c>
       <c r="M39" t="n">
-        <v>56.58433177457412</v>
+        <v>56.58433177457403</v>
       </c>
       <c r="N39" t="n">
-        <v>58.08195066471303</v>
+        <v>58.08195066471293</v>
       </c>
       <c r="O39" t="n">
-        <v>53.13363762809976</v>
+        <v>53.13363762809966</v>
       </c>
       <c r="P39" t="n">
-        <v>42.64442854078949</v>
+        <v>42.64442854078941</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.50667114362482</v>
+        <v>28.50667114362477</v>
       </c>
       <c r="R39" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350303</v>
       </c>
       <c r="S39" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586132</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9001384957734743</v>
+        <v>0.9001384957734727</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01469214084505128</v>
+        <v>0.01469214084505125</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210902</v>
       </c>
       <c r="H40" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267512</v>
       </c>
       <c r="I40" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514241</v>
       </c>
       <c r="J40" t="n">
-        <v>13.2367678812111</v>
+        <v>13.23676788121107</v>
       </c>
       <c r="K40" t="n">
-        <v>21.75207580325033</v>
+        <v>21.75207580325029</v>
       </c>
       <c r="L40" t="n">
-        <v>27.83516805057559</v>
+        <v>27.83516805057554</v>
       </c>
       <c r="M40" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078598</v>
       </c>
       <c r="N40" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310739</v>
       </c>
       <c r="O40" t="n">
-        <v>26.46332352026106</v>
+        <v>26.46332352026101</v>
       </c>
       <c r="P40" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199075</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772602</v>
       </c>
       <c r="R40" t="n">
-        <v>8.418291621508304</v>
+        <v>8.418291621508288</v>
       </c>
       <c r="S40" t="n">
-        <v>3.262811370487549</v>
+        <v>3.262811370487543</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7999589692901138</v>
+        <v>0.7999589692901123</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115038</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4173847717455099</v>
+        <v>0.4173847717455091</v>
       </c>
       <c r="H41" t="n">
-        <v>4.274541793638704</v>
+        <v>4.274541793638696</v>
       </c>
       <c r="I41" t="n">
-        <v>16.09122641271878</v>
+        <v>16.09122641271875</v>
       </c>
       <c r="J41" t="n">
-        <v>35.4250107709355</v>
+        <v>35.42501077093544</v>
       </c>
       <c r="K41" t="n">
-        <v>53.09290815892294</v>
+        <v>53.09290815892285</v>
       </c>
       <c r="L41" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722948</v>
       </c>
       <c r="M41" t="n">
-        <v>73.28911380175882</v>
+        <v>73.28911380175867</v>
       </c>
       <c r="N41" t="n">
-        <v>74.47500828448075</v>
+        <v>74.47500828448061</v>
       </c>
       <c r="O41" t="n">
-        <v>70.32463846043633</v>
+        <v>70.3246384604362</v>
       </c>
       <c r="P41" t="n">
-        <v>60.02045190796905</v>
+        <v>60.02045190796894</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.07285976983296</v>
+        <v>45.07285976983288</v>
       </c>
       <c r="R41" t="n">
-        <v>26.21854616815891</v>
+        <v>26.21854616815886</v>
       </c>
       <c r="S41" t="n">
-        <v>9.511155486150816</v>
+        <v>9.511155486150798</v>
       </c>
       <c r="T41" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315967</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964072</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.223320540844779</v>
       </c>
       <c r="H42" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053523</v>
       </c>
       <c r="I42" t="n">
-        <v>7.688887042243501</v>
+        <v>7.688887042243486</v>
       </c>
       <c r="J42" t="n">
-        <v>21.09889372954997</v>
+        <v>21.09889372954993</v>
       </c>
       <c r="K42" t="n">
-        <v>36.06136996615018</v>
+        <v>36.06136996615012</v>
       </c>
       <c r="L42" t="n">
-        <v>48.48896216895088</v>
+        <v>48.4889621689508</v>
       </c>
       <c r="M42" t="n">
-        <v>56.58433177457412</v>
+        <v>56.58433177457403</v>
       </c>
       <c r="N42" t="n">
-        <v>58.08195066471303</v>
+        <v>58.08195066471293</v>
       </c>
       <c r="O42" t="n">
-        <v>53.13363762809976</v>
+        <v>53.13363762809966</v>
       </c>
       <c r="P42" t="n">
-        <v>42.64442854078949</v>
+        <v>42.64442854078941</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.50667114362482</v>
+        <v>28.50667114362477</v>
       </c>
       <c r="R42" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350303</v>
       </c>
       <c r="S42" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586132</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9001384957734743</v>
+        <v>0.9001384957734727</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01469214084505128</v>
+        <v>0.01469214084505125</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210902</v>
       </c>
       <c r="H43" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267512</v>
       </c>
       <c r="I43" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514241</v>
       </c>
       <c r="J43" t="n">
-        <v>13.2367678812111</v>
+        <v>13.23676788121107</v>
       </c>
       <c r="K43" t="n">
-        <v>21.75207580325033</v>
+        <v>21.75207580325029</v>
       </c>
       <c r="L43" t="n">
-        <v>27.83516805057559</v>
+        <v>27.83516805057554</v>
       </c>
       <c r="M43" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078598</v>
       </c>
       <c r="N43" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310739</v>
       </c>
       <c r="O43" t="n">
-        <v>26.46332352026106</v>
+        <v>26.46332352026101</v>
       </c>
       <c r="P43" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199075</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772602</v>
       </c>
       <c r="R43" t="n">
-        <v>8.418291621508304</v>
+        <v>8.418291621508288</v>
       </c>
       <c r="S43" t="n">
-        <v>3.262811370487549</v>
+        <v>3.262811370487543</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7999589692901138</v>
+        <v>0.7999589692901123</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115038</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4173847717455092</v>
+        <v>0.4173847717455091</v>
       </c>
       <c r="H44" t="n">
-        <v>4.274541793638697</v>
+        <v>4.274541793638696</v>
       </c>
       <c r="I44" t="n">
-        <v>16.09122641271876</v>
+        <v>16.09122641271875</v>
       </c>
       <c r="J44" t="n">
         <v>35.42501077093544</v>
       </c>
       <c r="K44" t="n">
-        <v>53.09290815892286</v>
+        <v>53.09290815892285</v>
       </c>
       <c r="L44" t="n">
-        <v>65.8664473672295</v>
+        <v>65.86644736722948</v>
       </c>
       <c r="M44" t="n">
-        <v>73.2891138017587</v>
+        <v>73.28911380175867</v>
       </c>
       <c r="N44" t="n">
-        <v>74.47500828448064</v>
+        <v>74.47500828448061</v>
       </c>
       <c r="O44" t="n">
-        <v>70.32463846043622</v>
+        <v>70.3246384604362</v>
       </c>
       <c r="P44" t="n">
-        <v>60.02045190796895</v>
+        <v>60.02045190796894</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.07285976983289</v>
+        <v>45.07285976983288</v>
       </c>
       <c r="R44" t="n">
-        <v>26.21854616815887</v>
+        <v>26.21854616815886</v>
       </c>
       <c r="S44" t="n">
-        <v>9.511155486150802</v>
+        <v>9.511155486150798</v>
       </c>
       <c r="T44" t="n">
-        <v>1.827101838315968</v>
+        <v>1.827101838315967</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03339078173964073</v>
+        <v>0.03339078173964072</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,46 +34439,46 @@
         <v>0.223320540844779</v>
       </c>
       <c r="H45" t="n">
-        <v>2.156806276053524</v>
+        <v>2.156806276053523</v>
       </c>
       <c r="I45" t="n">
-        <v>7.688887042243489</v>
+        <v>7.688887042243486</v>
       </c>
       <c r="J45" t="n">
-        <v>21.09889372954994</v>
+        <v>21.09889372954993</v>
       </c>
       <c r="K45" t="n">
         <v>36.06136996615012</v>
       </c>
       <c r="L45" t="n">
-        <v>48.48896216895081</v>
+        <v>48.4889621689508</v>
       </c>
       <c r="M45" t="n">
-        <v>56.58433177457404</v>
+        <v>56.58433177457403</v>
       </c>
       <c r="N45" t="n">
-        <v>58.08195066471294</v>
+        <v>58.08195066471293</v>
       </c>
       <c r="O45" t="n">
-        <v>53.13363762809968</v>
+        <v>53.13363762809966</v>
       </c>
       <c r="P45" t="n">
-        <v>42.64442854078943</v>
+        <v>42.64442854078941</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.50667114362478</v>
+        <v>28.50667114362477</v>
       </c>
       <c r="R45" t="n">
-        <v>13.86546305350304</v>
+        <v>13.86546305350303</v>
       </c>
       <c r="S45" t="n">
-        <v>4.148081098586133</v>
+        <v>4.148081098586132</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9001384957734729</v>
+        <v>0.9001384957734727</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01469214084505126</v>
+        <v>0.01469214084505125</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,43 +34521,43 @@
         <v>1.664595472267512</v>
       </c>
       <c r="I46" t="n">
-        <v>5.630349511514242</v>
+        <v>5.630349511514241</v>
       </c>
       <c r="J46" t="n">
-        <v>13.23676788121108</v>
+        <v>13.23676788121107</v>
       </c>
       <c r="K46" t="n">
-        <v>21.7520758032503</v>
+        <v>21.75207580325029</v>
       </c>
       <c r="L46" t="n">
-        <v>27.83516805057555</v>
+        <v>27.83516805057554</v>
       </c>
       <c r="M46" t="n">
         <v>29.34828193078598</v>
       </c>
       <c r="N46" t="n">
-        <v>28.6504453831074</v>
+        <v>28.65044538310739</v>
       </c>
       <c r="O46" t="n">
-        <v>26.46332352026102</v>
+        <v>26.46332352026101</v>
       </c>
       <c r="P46" t="n">
-        <v>22.64394495199076</v>
+        <v>22.64394495199075</v>
       </c>
       <c r="Q46" t="n">
         <v>15.67749375772602</v>
       </c>
       <c r="R46" t="n">
-        <v>8.418291621508292</v>
+        <v>8.418291621508288</v>
       </c>
       <c r="S46" t="n">
-        <v>3.262811370487544</v>
+        <v>3.262811370487543</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7999589692901126</v>
+        <v>0.7999589692901123</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01021224216115039</v>
+        <v>0.01021224216115038</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>71.67360073929329</v>
+        <v>118.3351837672717</v>
       </c>
       <c r="K11" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>48.87588813253703</v>
+        <v>48.87588813253687</v>
       </c>
       <c r="M11" t="n">
-        <v>83.55147896784156</v>
+        <v>83.55147896784139</v>
       </c>
       <c r="N11" t="n">
-        <v>122.7111663740568</v>
+        <v>77.99187771560537</v>
       </c>
       <c r="O11" t="n">
-        <v>36.36333798423749</v>
+        <v>36.36333798423732</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>120.76887200453</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.26828800158318</v>
+        <v>39.2682880015831</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>119.7571625941458</v>
       </c>
       <c r="M12" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="N12" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>122.7111663740568</v>
+        <v>118.5904960282513</v>
       </c>
       <c r="P12" t="n">
-        <v>78.48485144826935</v>
+        <v>85.55952557398578</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,22 +35541,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.59464922242157</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>49.02891963667901</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>52.45238436346136</v>
       </c>
       <c r="F13" t="n">
-        <v>55.28468766894301</v>
+        <v>55.28468766894306</v>
       </c>
       <c r="G13" t="n">
-        <v>25.51557919906578</v>
+        <v>25.51557919906584</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.31020798966226</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="P13" t="n">
-        <v>36.48569639332473</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>71.67360073929328</v>
+        <v>118.3351837672717</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15.1172700465174</v>
       </c>
       <c r="L14" t="n">
-        <v>48.87588813253703</v>
+        <v>48.87588813253691</v>
       </c>
       <c r="M14" t="n">
-        <v>83.55147896784156</v>
+        <v>83.55147896784143</v>
       </c>
       <c r="N14" t="n">
-        <v>122.7111663740568</v>
+        <v>77.99187771560541</v>
       </c>
       <c r="O14" t="n">
-        <v>36.36333798423749</v>
+        <v>36.36333798423738</v>
       </c>
       <c r="P14" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>105.6516019580125</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.26828800158312</v>
       </c>
       <c r="L15" t="n">
-        <v>119.7571625941459</v>
+        <v>119.7571625941458</v>
       </c>
       <c r="M15" t="n">
-        <v>35.14761765577756</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="N15" t="n">
-        <v>122.7111663740568</v>
+        <v>81.43885522818027</v>
       </c>
       <c r="O15" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="P15" t="n">
-        <v>85.55952557398587</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,16 +35778,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.59464922242157</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>49.02891963667895</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>19.76032639414994</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -35799,19 +35799,19 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>29.50247692892449</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.31020798966223</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>66.48541379778004</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="M16" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -35820,10 +35820,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.39519868597472</v>
+        <v>67.39519868597475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>80.04776061082526</v>
       </c>
       <c r="J17" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>48.87588813253703</v>
+        <v>48.87588813253691</v>
       </c>
       <c r="M17" t="n">
-        <v>83.55147896784156</v>
+        <v>83.55147896784143</v>
       </c>
       <c r="N17" t="n">
-        <v>77.99187771560554</v>
+        <v>77.99187771560541</v>
       </c>
       <c r="O17" t="n">
-        <v>122.7111663740568</v>
+        <v>36.36333798423738</v>
       </c>
       <c r="P17" t="n">
-        <v>30.04506100792523</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>88.55964065385062</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35914,7 +35914,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>70.49665450712565</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.26828800158318</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>119.7571625941458</v>
       </c>
       <c r="M18" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="N18" t="n">
-        <v>122.7111663740568</v>
+        <v>35.14761765577753</v>
       </c>
       <c r="O18" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="P18" t="n">
-        <v>78.48485144826935</v>
+        <v>85.55952557398581</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,25 +36115,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>80.04776061082521</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>88.55964065385079</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>117.7531394498525</v>
+        <v>48.87588813253691</v>
       </c>
       <c r="M20" t="n">
-        <v>122.7111663740568</v>
+        <v>83.55147896784143</v>
       </c>
       <c r="N20" t="n">
-        <v>122.7111663740568</v>
+        <v>77.99187771560541</v>
       </c>
       <c r="O20" t="n">
-        <v>122.7111663740568</v>
+        <v>36.36333798423738</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36151,7 +36151,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>70.4966545071256</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>119.7571625941459</v>
+        <v>32.19361387586662</v>
       </c>
       <c r="M21" t="n">
-        <v>35.14761765577756</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="N21" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="O21" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="P21" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398581</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,25 +36352,25 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>80.04776061082521</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>60.82914497405588</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>48.87588813253703</v>
+        <v>48.87588813253691</v>
       </c>
       <c r="M23" t="n">
-        <v>83.55147896784156</v>
+        <v>83.55147896784143</v>
       </c>
       <c r="N23" t="n">
-        <v>122.7111663740569</v>
+        <v>77.99187771560541</v>
       </c>
       <c r="O23" t="n">
-        <v>122.7111663740569</v>
+        <v>36.36333798423738</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36388,7 +36388,7 @@
         <v>98.22715018692068</v>
       </c>
       <c r="U23" t="n">
-        <v>9.809788536610213</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>39.26828800158318</v>
+        <v>39.26828800158312</v>
       </c>
       <c r="L24" t="n">
-        <v>119.7571625941459</v>
+        <v>119.7571625941458</v>
       </c>
       <c r="M24" t="n">
-        <v>122.7111663740569</v>
+        <v>122.7111663740568</v>
       </c>
       <c r="N24" t="n">
-        <v>118.5904960282516</v>
+        <v>122.7111663740568</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>85.55952557398587</v>
+        <v>81.43885522818033</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>207.550101296444</v>
       </c>
       <c r="L26" t="n">
-        <v>261.7964721988196</v>
+        <v>261.7964721988195</v>
       </c>
       <c r="M26" t="n">
-        <v>296.4720630341242</v>
+        <v>296.4720630341251</v>
       </c>
       <c r="N26" t="n">
-        <v>290.9124617818882</v>
+        <v>290.9124617818881</v>
       </c>
       <c r="O26" t="n">
-        <v>249.2839220505201</v>
+        <v>249.28392205052</v>
       </c>
       <c r="P26" t="n">
-        <v>199.3623440479436</v>
+        <v>199.3623440479435</v>
       </c>
       <c r="Q26" t="n">
         <v>124.3606161369054</v>
       </c>
       <c r="R26" t="n">
-        <v>18.70901417889298</v>
+        <v>18.70901417889294</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.26828800158318</v>
+        <v>39.26828800158312</v>
       </c>
       <c r="L27" t="n">
-        <v>119.7571625941459</v>
+        <v>119.7571625941458</v>
       </c>
       <c r="M27" t="n">
-        <v>184.9576916997117</v>
+        <v>184.9576916997116</v>
       </c>
       <c r="N27" t="n">
-        <v>208.458920497669</v>
+        <v>208.4589204976689</v>
       </c>
       <c r="O27" t="n">
-        <v>134.3890022971983</v>
+        <v>134.3890022971982</v>
       </c>
       <c r="P27" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398581</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36726,7 +36726,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.30366340131454</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -36738,19 +36738,19 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>73.99370184783598</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>47.13872264411027</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>48.21149110781745</v>
       </c>
       <c r="J28" t="n">
-        <v>4.058478032188868</v>
+        <v>67.15077155075659</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>197.1325457170168</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>207.550101296444</v>
       </c>
       <c r="L29" t="n">
-        <v>261.7964721988196</v>
+        <v>261.7964721988195</v>
       </c>
       <c r="M29" t="n">
-        <v>296.4720630341242</v>
+        <v>296.4720630341241</v>
       </c>
       <c r="N29" t="n">
-        <v>290.9124617818882</v>
+        <v>290.9124617818881</v>
       </c>
       <c r="O29" t="n">
-        <v>249.2839220505201</v>
+        <v>249.28392205052</v>
       </c>
       <c r="P29" t="n">
-        <v>199.3623440479436</v>
+        <v>199.3623440479435</v>
       </c>
       <c r="Q29" t="n">
         <v>124.3606161369054</v>
       </c>
       <c r="R29" t="n">
-        <v>18.70901417889303</v>
+        <v>18.70901417889294</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.26828800158318</v>
+        <v>39.26828800158312</v>
       </c>
       <c r="L30" t="n">
-        <v>119.7571625941459</v>
+        <v>119.7571625941458</v>
       </c>
       <c r="M30" t="n">
-        <v>184.9576916997117</v>
+        <v>184.9576916997116</v>
       </c>
       <c r="N30" t="n">
-        <v>208.458920497669</v>
+        <v>208.4589204976689</v>
       </c>
       <c r="O30" t="n">
-        <v>134.3890022971983</v>
+        <v>134.3890022971982</v>
       </c>
       <c r="P30" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398581</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36963,7 +36963,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.30366340131454</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>46.17040664339372</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37005,13 +37005,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>155.020617105812</v>
+        <v>140.6847346000385</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.10421286486766</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.705739685614148</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>207.550101296444</v>
       </c>
       <c r="L32" t="n">
-        <v>261.7964721988196</v>
+        <v>261.7964721988195</v>
       </c>
       <c r="M32" t="n">
-        <v>296.4720630341242</v>
+        <v>296.4720630341241</v>
       </c>
       <c r="N32" t="n">
-        <v>290.9124617818882</v>
+        <v>290.9124617818881</v>
       </c>
       <c r="O32" t="n">
-        <v>249.2839220505201</v>
+        <v>249.28392205052</v>
       </c>
       <c r="P32" t="n">
-        <v>199.3623440479436</v>
+        <v>199.3623440479435</v>
       </c>
       <c r="Q32" t="n">
         <v>124.3606161369054</v>
       </c>
       <c r="R32" t="n">
-        <v>18.70901417889297</v>
+        <v>18.70901417889294</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.26828800158318</v>
+        <v>39.26828800158312</v>
       </c>
       <c r="L33" t="n">
-        <v>119.7571625941459</v>
+        <v>119.7571625941458</v>
       </c>
       <c r="M33" t="n">
-        <v>184.9576916997117</v>
+        <v>184.9576916997116</v>
       </c>
       <c r="N33" t="n">
-        <v>208.458920497669</v>
+        <v>208.4589204976689</v>
       </c>
       <c r="O33" t="n">
-        <v>134.3890022971983</v>
+        <v>134.3890022971982</v>
       </c>
       <c r="P33" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398581</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37233,16 +37233,16 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>188.4536698503112</v>
       </c>
       <c r="N34" t="n">
-        <v>81.47407004470827</v>
+        <v>48.04101730020908</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>155.020617105812</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37300,37 +37300,37 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.712628651176686</v>
+        <v>7.712628651176658</v>
       </c>
       <c r="J35" t="n">
-        <v>172.4348246688263</v>
+        <v>58.32427158419759</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>242.9407280191055</v>
       </c>
       <c r="L35" t="n">
-        <v>221.8936974420446</v>
+        <v>48.87588813253691</v>
       </c>
       <c r="M35" t="n">
-        <v>328.2164562649701</v>
+        <v>83.55147896784143</v>
       </c>
       <c r="N35" t="n">
-        <v>77.99187771560555</v>
+        <v>77.99187771560541</v>
       </c>
       <c r="O35" t="n">
-        <v>284.6745487731817</v>
+        <v>284.6745487731816</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>234.7529707706051</v>
       </c>
       <c r="Q35" t="n">
         <v>159.751242859567</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.09964090155452</v>
       </c>
       <c r="S35" t="n">
-        <v>21.03725949703602</v>
+        <v>21.037259497036</v>
       </c>
       <c r="T35" t="n">
         <v>25.89201822727213</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.26828800158319</v>
+        <v>39.26828800158312</v>
       </c>
       <c r="L36" t="n">
-        <v>119.7571625941459</v>
+        <v>119.7571625941458</v>
       </c>
       <c r="M36" t="n">
-        <v>184.9576916997117</v>
+        <v>184.9576916997116</v>
       </c>
       <c r="N36" t="n">
-        <v>208.458920497669</v>
+        <v>208.4589204976689</v>
       </c>
       <c r="O36" t="n">
-        <v>134.3890022971983</v>
+        <v>134.3890022971982</v>
       </c>
       <c r="P36" t="n">
-        <v>85.55952557398588</v>
+        <v>85.55952557398581</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37437,7 +37437,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>70.69429012397612</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>13.3222199479869</v>
+        <v>84.01651007196301</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37537,25 +37537,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.712628651176686</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>52.95378881435823</v>
+        <v>172.4348246688262</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>242.9407280191055</v>
       </c>
       <c r="L38" t="n">
-        <v>48.87588813253703</v>
+        <v>48.87588813253691</v>
       </c>
       <c r="M38" t="n">
-        <v>83.55147896784158</v>
+        <v>83.55147896784143</v>
       </c>
       <c r="N38" t="n">
-        <v>326.3030885045497</v>
+        <v>77.99187771560541</v>
       </c>
       <c r="O38" t="n">
-        <v>284.6745487731817</v>
+        <v>225.2059020640378</v>
       </c>
       <c r="P38" t="n">
         <v>234.7529707706051</v>
@@ -37564,13 +37564,13 @@
         <v>159.751242859567</v>
       </c>
       <c r="R38" t="n">
-        <v>54.09964090155457</v>
+        <v>54.09964090155452</v>
       </c>
       <c r="S38" t="n">
-        <v>21.03725949703602</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>25.89201822727213</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.26828800158319</v>
+        <v>39.26828800158312</v>
       </c>
       <c r="L39" t="n">
-        <v>119.7571625941459</v>
+        <v>119.7571625941458</v>
       </c>
       <c r="M39" t="n">
-        <v>184.9576916997117</v>
+        <v>184.9576916997116</v>
       </c>
       <c r="N39" t="n">
-        <v>208.458920497669</v>
+        <v>208.4589204976689</v>
       </c>
       <c r="O39" t="n">
-        <v>134.3890022971983</v>
+        <v>134.3890022971982</v>
       </c>
       <c r="P39" t="n">
-        <v>85.55952557398588</v>
+        <v>85.55952557398581</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37680,10 +37680,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
         <v>84.01651007196303</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37777,34 +37777,34 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.7221960176496</v>
+        <v>164.7221960176495</v>
       </c>
       <c r="K41" t="n">
-        <v>30.80509703126834</v>
+        <v>235.2280993679289</v>
       </c>
       <c r="L41" t="n">
-        <v>289.4744702703046</v>
+        <v>289.4744702703044</v>
       </c>
       <c r="M41" t="n">
-        <v>83.55147896784158</v>
+        <v>285.3239129956779</v>
       </c>
       <c r="N41" t="n">
-        <v>318.5904598533731</v>
+        <v>77.99187771560541</v>
       </c>
       <c r="O41" t="n">
-        <v>276.961920122005</v>
+        <v>36.36333798423738</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>227.0403421194284</v>
       </c>
       <c r="Q41" t="n">
-        <v>152.0386142083904</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>46.38701225037791</v>
+        <v>46.38701225037786</v>
       </c>
       <c r="S41" t="n">
-        <v>13.32463084585936</v>
+        <v>13.32463084585935</v>
       </c>
       <c r="T41" t="n">
         <v>18.17938957609547</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.26828800158319</v>
+        <v>39.26828800158312</v>
       </c>
       <c r="L42" t="n">
-        <v>119.7571625941459</v>
+        <v>119.7571625941458</v>
       </c>
       <c r="M42" t="n">
-        <v>184.9576916997117</v>
+        <v>184.9576916997116</v>
       </c>
       <c r="N42" t="n">
-        <v>208.458920497669</v>
+        <v>208.4589204976689</v>
       </c>
       <c r="O42" t="n">
-        <v>134.3890022971983</v>
+        <v>134.3890022971982</v>
       </c>
       <c r="P42" t="n">
-        <v>85.55952557398588</v>
+        <v>85.55952557398581</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37914,10 +37914,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>74.1414011657952</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>30.21557452093739</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>104.3569756867326</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -38017,34 +38017,34 @@
         <v>164.7221960176495</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>235.2280993679289</v>
       </c>
       <c r="L44" t="n">
-        <v>51.06626950314548</v>
+        <v>289.4744702703044</v>
       </c>
       <c r="M44" t="n">
         <v>324.150061105609</v>
       </c>
       <c r="N44" t="n">
-        <v>318.590459853373</v>
+        <v>77.99187771560541</v>
       </c>
       <c r="O44" t="n">
-        <v>276.9619201220049</v>
+        <v>36.36333798423738</v>
       </c>
       <c r="P44" t="n">
-        <v>227.0403421194284</v>
+        <v>54.3549693772033</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>152.0386142083903</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>46.38701225037786</v>
       </c>
       <c r="S44" t="n">
         <v>13.32463084585935</v>
       </c>
       <c r="T44" t="n">
-        <v>18.17938957609547</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,10 +38096,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.26828800158313</v>
+        <v>39.26828800158312</v>
       </c>
       <c r="L45" t="n">
-        <v>119.7571625941459</v>
+        <v>119.7571625941458</v>
       </c>
       <c r="M45" t="n">
         <v>184.9576916997116</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>29.54025497113744</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38166,13 +38166,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>74.81672071559518</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>104.3569756867326</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
